--- a/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/prismaticEvolution/pokemon_data.xlsx
+++ b/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/prismaticEvolution/pokemon_data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-25560" yWindow="1155" windowWidth="25260" windowHeight="11385" tabRatio="797" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3450" yWindow="825" windowWidth="25260" windowHeight="11385" tabRatio="797" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data'!$A$1:$K$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data'!$A$1:$K$348</definedName>
   </definedNames>
   <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
@@ -115,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -141,6 +141,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -148,6 +151,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -520,16 +526,15 @@
   </sheetPr>
   <dimension ref="A1:K1263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="73.2" customWidth="1" min="1" max="1"/>
+    <col width="73.140625" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="4"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
     <col width="24.7109375" customWidth="1" min="6" max="6"/>
     <col width="33.5703125" customWidth="1" min="7" max="8"/>
@@ -602,32 +607,32 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>0.12</v>
       </c>
       <c r="F2" s="3">
-        <f>IF(B2="common", 4, IF(B2="uncommon", 3, IF(B2="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B2="common", 4, IF(B2="uncommon", 3, IF(B2="rare", 0.75, 1)))</f>
         <v/>
       </c>
       <c r="G2" s="3">
-        <f>SUM(H2:H11)</f>
+        <f>SUM(H2:H12)</f>
         <v/>
       </c>
       <c r="H2">
-        <f>SUMPRODUCT(
-  (ISNUMBER(SEARCH("Common", B2:B348))) *
+        <f>4*SUMPRODUCT(
+  (B2:B348="common") *
   ISERROR(SEARCH("Master Ball Pattern", A2:A348)) *
   ISERROR(SEARCH("Poke Ball Pattern", A2:A348)) *
-  D2:D348 * F2:F348 / C2:C348
+  D2:D348 / C2:C348
 )</f>
         <v/>
       </c>
@@ -645,7 +650,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
@@ -654,18 +659,18 @@
       <c r="D3" s="3" t="n">
         <v>0.28</v>
       </c>
-      <c r="E3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="n"/>
       <c r="F3" s="3">
-        <f>IF(B3="common", 4, IF(B3="uncommon", 3, IF(B3="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B3="common", 4, IF(B3="uncommon", 3, IF(B3="rare", 0.75, 1)))</f>
         <v/>
       </c>
       <c r="G3" s="3" t="n"/>
       <c r="H3">
-        <f>SUMPRODUCT(
-  (ISNUMBER(SEARCH("Uncommon", B2:B348))) *
+        <f>3*SUMPRODUCT(
+  (ISNUMBER(SEARCH("uncommon", B2:B348))) *
   ISERROR(SEARCH("Master Ball Pattern", A2:A348)) *
   ISERROR(SEARCH("Poke Ball Pattern", A2:A348)) *
-  D2:D348 * F2:F348 / C2:C348
+  D2:D348 / C2:C348
 )</f>
         <v/>
       </c>
@@ -678,27 +683,27 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
         <v>161</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E4" s="3" t="inlineStr"/>
+        <v>0.74</v>
+      </c>
+      <c r="E4" s="3" t="n"/>
       <c r="F4" s="3">
-        <f>IF(B4="common", 4, IF(B4="uncommon", 3, IF(B4="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B4="common", 4, IF(B4="uncommon", 3, IF(B4="rare", 0.75, 1)))</f>
         <v/>
       </c>
       <c r="G4" s="3" t="n"/>
       <c r="H4">
-        <f>SUMPRODUCT(
+        <f>0.75*SUMPRODUCT(
   (B2:B348="Rare") *
   ISERROR(SEARCH("Master Ball Pattern", A2:A348)) *
   ISERROR(SEARCH("Poke Ball Pattern", A2:A348)) *
-  D2:D348 * F2:F348 / C2:C348
+  D2:D348  / C2:C348
 )</f>
         <v/>
       </c>
@@ -711,23 +716,23 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
         <v>1440</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>31.84</v>
-      </c>
-      <c r="E5" s="3" t="inlineStr"/>
+        <v>31.75</v>
+      </c>
+      <c r="E5" s="3" t="n"/>
       <c r="F5" s="3">
-        <f>IF(B5="common", 4, IF(B5="uncommon", 3, IF(B5="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B5="common", 4, IF(B5="uncommon", 3, IF(B5="rare", 0.75, 1)))</f>
         <v/>
       </c>
       <c r="G5" s="3" t="n"/>
       <c r="H5">
-        <f>SUMPRODUCT((B2:B348="Double Rare") * D2:D348 * F2:F348 / C2:C348)</f>
+        <f>1.47 * SUMPRODUCT((C2:C348&lt;&gt;"") * (E2:E348&lt;&gt;"") * (E2:E348 / C2:C348))</f>
         <v/>
       </c>
     </row>
@@ -739,7 +744,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
@@ -752,7 +757,7 @@
         <v>0.14</v>
       </c>
       <c r="F6" s="3">
-        <f>IF(B6="common", 4, IF(B6="uncommon", 3, IF(B6="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B6="common", 4, IF(B6="uncommon", 3, IF(B6="rare", 0.75, 1)))</f>
         <v/>
       </c>
       <c r="G6" s="3" t="n"/>
@@ -769,136 +774,22 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="E7" s="3" t="inlineStr"/>
+        <v>3.44</v>
+      </c>
+      <c r="E7" s="3" t="n"/>
       <c r="F7" s="3">
-        <f>IF(B7="common", 4, IF(B7="uncommon", 3, IF(B7="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B7="common", 4, IF(B7="uncommon", 3, IF(B7="rare", 0.75, 1)))</f>
         <v/>
       </c>
       <c r="G7" s="3" t="n"/>
       <c r="H7">
-        <f>SUMPRODUCT((B2:B348="Special Illustration Rare") * D2:D348 * F2:F348 / C2:C348)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>Applin (Poke Ball Pattern)</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Common</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>302</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E8" s="3" t="inlineStr"/>
-      <c r="F8" s="3">
-        <f>IF(B8="common", 4, IF(B8="uncommon", 3, IF(B8="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8">
-        <f>SUMPRODUCT((B2:B348="Hyper Rare") * D2:D348 * F2:F348 / C2:C348)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>Archaludon</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Rare</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F9" s="3">
-        <f>IF(B9="common", 4, IF(B9="uncommon", 3, IF(B9="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
-      <c r="G9" s="3" t="n"/>
-      <c r="H9">
-        <f>SUMPRODUCT((B2:B348="Ultra Rare") * D2:D348 * F2:F348 / C2:C348)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>Archaludon (Master Ball Pattern)</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Rare</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>1362</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E10" s="3" t="inlineStr"/>
-      <c r="F10" s="3">
-        <f>IF(B10="common", 4, IF(B10="uncommon", 3, IF(B10="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
-      <c r="G10" s="3" t="n"/>
-      <c r="H10">
-        <f>1.47 * SUMPRODUCT((C2:C217&lt;&gt;"") * (E2:E217&lt;&gt;"") * (E2:E217 / C2:C217))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Archaludon (Poke Ball Pattern)</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Rare</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>302</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E11" s="3" t="inlineStr"/>
-      <c r="F11" s="3">
-        <f>IF(B11="common", 4, IF(B11="uncommon", 3, IF(B11="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
-      <c r="G11" s="3" t="n"/>
-      <c r="H11">
         <f>SUMPRODUCT(
   ISNUMBER(SEARCH("Poke Ball Pattern", A2:A348)) *
   D2:D348 * 1 / C2:C348
@@ -906,31 +797,30 @@
         <v/>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Area Zero Underdepths</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Uncommon</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="F12" s="3">
-        <f>IF(B12="common", 4, IF(B12="uncommon", 3, IF(B12="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
-      <c r="H12">
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Applin (Poke Ball Pattern)</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>poke ball pattern</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>302</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3">
+        <f>IF(B8="common", 4, IF(B8="uncommon", 3, IF(B8="rare", 0.75, 1)))</f>
+        <v/>
+      </c>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8">
         <f>SUMPRODUCT(
   ISNUMBER(SEARCH("Master Ball Pattern", A2:A348)) *
   D2:D348 * 1 / C2:C348
@@ -938,6 +828,121 @@
         <v/>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Archaludon</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>rare</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F9" s="3">
+        <f>IF(B9="common", 4, IF(B9="uncommon", 3, IF(B9="rare", 0.75, 1)))</f>
+        <v/>
+      </c>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9">
+        <f>SUMPRODUCT((B2:B348="Special Illustration Rare") * D2:D348 * F2:F348 / C2:C348)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Archaludon (Master Ball Pattern)</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>master ball pattern</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>1362</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3">
+        <f>IF(B10="common", 4, IF(B10="uncommon", 3, IF(B10="rare", 0.75, 1)))</f>
+        <v/>
+      </c>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10">
+        <f>SUMPRODUCT((B2:B348="Double Rare") * D2:D348 * F2:F348 / C2:C348)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Archaludon (Poke Ball Pattern)</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>poke ball pattern</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>302</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3">
+        <f>IF(B11="common", 4, IF(B11="uncommon", 3, IF(B11="rare", 0.75, 1)))</f>
+        <v/>
+      </c>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11">
+        <f>SUMPRODUCT((B2:B348="Hyper Rare") * D2:D348 * F2:F348 / C2:C348)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Area Zero Underdepths</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>uncommon</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="3">
+        <f>IF(B12="common", 4, IF(B12="uncommon", 3, IF(B12="rare", 0.75, 1)))</f>
+        <v/>
+      </c>
+      <c r="H12">
+        <f>SUMPRODUCT((B2:B348="Ultra Rare") * D2:D348 * F2:F348 / C2:C348)</f>
+        <v/>
+      </c>
+    </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
@@ -946,18 +951,18 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C13" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="E13" s="3" t="inlineStr"/>
+        <v>0.87</v>
+      </c>
+      <c r="E13" s="3" t="n"/>
       <c r="F13" s="3">
-        <f>IF(B13="common", 4, IF(B13="uncommon", 3, IF(B13="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B13="common", 4, IF(B13="uncommon", 3, IF(B13="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -969,7 +974,7 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C14" s="3" t="n">
@@ -982,7 +987,7 @@
         <v>0.15</v>
       </c>
       <c r="F14" s="3">
-        <f>IF(B14="common", 4, IF(B14="uncommon", 3, IF(B14="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B14="common", 4, IF(B14="uncommon", 3, IF(B14="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -994,18 +999,18 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C15" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="E15" s="3" t="inlineStr"/>
+        <v>6.22</v>
+      </c>
+      <c r="E15" s="3" t="n"/>
       <c r="F15" s="3">
-        <f>IF(B15="common", 4, IF(B15="uncommon", 3, IF(B15="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B15="common", 4, IF(B15="uncommon", 3, IF(B15="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1017,7 +1022,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C16" s="3" t="n">
@@ -1026,9 +1031,9 @@
       <c r="D16" s="3" t="n">
         <v>0.42</v>
       </c>
-      <c r="E16" s="3" t="inlineStr"/>
+      <c r="E16" s="3" t="n"/>
       <c r="F16" s="3">
-        <f>IF(B16="common", 4, IF(B16="uncommon", 3, IF(B16="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B16="common", 4, IF(B16="uncommon", 3, IF(B16="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1040,18 +1045,18 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C17" s="3" t="n">
         <v>161</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="E17" s="3" t="inlineStr"/>
+        <v>0.98</v>
+      </c>
+      <c r="E17" s="3" t="n"/>
       <c r="F17" s="3">
-        <f>IF(B17="common", 4, IF(B17="uncommon", 3, IF(B17="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B17="common", 4, IF(B17="uncommon", 3, IF(B17="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1063,18 +1068,18 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C18" s="3" t="n">
         <v>161</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E18" s="3" t="inlineStr"/>
+        <v>0.62</v>
+      </c>
+      <c r="E18" s="3" t="n"/>
       <c r="F18" s="3">
-        <f>IF(B18="common", 4, IF(B18="uncommon", 3, IF(B18="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B18="common", 4, IF(B18="uncommon", 3, IF(B18="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1086,20 +1091,20 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C19" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>0.17</v>
       </c>
       <c r="F19" s="3">
-        <f>IF(B19="common", 4, IF(B19="uncommon", 3, IF(B19="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B19="common", 4, IF(B19="uncommon", 3, IF(B19="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1111,18 +1116,18 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C20" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E20" s="3" t="inlineStr"/>
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="3" t="n"/>
       <c r="F20" s="3">
-        <f>IF(B20="common", 4, IF(B20="uncommon", 3, IF(B20="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B20="common", 4, IF(B20="uncommon", 3, IF(B20="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1134,7 +1139,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C21" s="3" t="n">
@@ -1147,7 +1152,7 @@
         <v>0.19</v>
       </c>
       <c r="F21" s="3">
-        <f>IF(B21="common", 4, IF(B21="uncommon", 3, IF(B21="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B21="common", 4, IF(B21="uncommon", 3, IF(B21="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1159,18 +1164,18 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C22" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E22" s="3" t="inlineStr"/>
+        <v>0.53</v>
+      </c>
+      <c r="E22" s="3" t="n"/>
       <c r="F22" s="3">
-        <f>IF(B22="common", 4, IF(B22="uncommon", 3, IF(B22="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B22="common", 4, IF(B22="uncommon", 3, IF(B22="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1182,7 +1187,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C23" s="3" t="n">
@@ -1195,7 +1200,7 @@
         <v>0.15</v>
       </c>
       <c r="F23" s="3">
-        <f>IF(B23="common", 4, IF(B23="uncommon", 3, IF(B23="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B23="common", 4, IF(B23="uncommon", 3, IF(B23="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1207,7 +1212,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C24" s="3" t="n">
@@ -1216,9 +1221,9 @@
       <c r="D24" s="3" t="n">
         <v>0.52</v>
       </c>
-      <c r="E24" s="3" t="inlineStr"/>
+      <c r="E24" s="3" t="n"/>
       <c r="F24" s="3">
-        <f>IF(B24="common", 4, IF(B24="uncommon", 3, IF(B24="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B24="common", 4, IF(B24="uncommon", 3, IF(B24="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1230,7 +1235,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C25" s="3" t="n">
@@ -1243,7 +1248,7 @@
         <v>0.13</v>
       </c>
       <c r="F25" s="3">
-        <f>IF(B25="common", 4, IF(B25="uncommon", 3, IF(B25="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B25="common", 4, IF(B25="uncommon", 3, IF(B25="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1255,18 +1260,18 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C26" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E26" s="3" t="inlineStr"/>
+        <v>0.54</v>
+      </c>
+      <c r="E26" s="3" t="n"/>
       <c r="F26" s="3">
-        <f>IF(B26="common", 4, IF(B26="uncommon", 3, IF(B26="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B26="common", 4, IF(B26="uncommon", 3, IF(B26="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1278,7 +1283,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C27" s="3" t="n">
@@ -1291,7 +1296,7 @@
         <v>0.15</v>
       </c>
       <c r="F27" s="3">
-        <f>IF(B27="common", 4, IF(B27="uncommon", 3, IF(B27="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B27="common", 4, IF(B27="uncommon", 3, IF(B27="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1303,7 +1308,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C28" s="3" t="n">
@@ -1312,9 +1317,9 @@
       <c r="D28" s="3" t="n">
         <v>0.42</v>
       </c>
-      <c r="E28" s="3" t="inlineStr"/>
+      <c r="E28" s="3" t="n"/>
       <c r="F28" s="3">
-        <f>IF(B28="common", 4, IF(B28="uncommon", 3, IF(B28="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B28="common", 4, IF(B28="uncommon", 3, IF(B28="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1326,20 +1331,20 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C29" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F29" s="3">
-        <f>IF(B29="common", 4, IF(B29="uncommon", 3, IF(B29="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B29="common", 4, IF(B29="uncommon", 3, IF(B29="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1351,18 +1356,18 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C30" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="E30" s="3" t="inlineStr"/>
+        <v>9.08</v>
+      </c>
+      <c r="E30" s="3" t="n"/>
       <c r="F30" s="3">
-        <f>IF(B30="common", 4, IF(B30="uncommon", 3, IF(B30="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B30="common", 4, IF(B30="uncommon", 3, IF(B30="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1374,18 +1379,18 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C31" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E31" s="3" t="inlineStr"/>
+        <v>0.38</v>
+      </c>
+      <c r="E31" s="3" t="n"/>
       <c r="F31" s="3">
-        <f>IF(B31="common", 4, IF(B31="uncommon", 3, IF(B31="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B31="common", 4, IF(B31="uncommon", 3, IF(B31="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1397,18 +1402,18 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C32" s="3" t="n">
         <v>1440</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>107.93</v>
-      </c>
-      <c r="E32" s="3" t="inlineStr"/>
+        <v>107.98</v>
+      </c>
+      <c r="E32" s="3" t="n"/>
       <c r="F32" s="3">
-        <f>IF(B32="common", 4, IF(B32="uncommon", 3, IF(B32="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B32="common", 4, IF(B32="uncommon", 3, IF(B32="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1420,18 +1425,18 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C33" s="3" t="n">
         <v>161</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="E33" s="3" t="inlineStr"/>
+        <v>0.67</v>
+      </c>
+      <c r="E33" s="3" t="n"/>
       <c r="F33" s="3">
-        <f>IF(B33="common", 4, IF(B33="uncommon", 3, IF(B33="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B33="common", 4, IF(B33="uncommon", 3, IF(B33="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1443,20 +1448,20 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C34" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F34" s="3">
-        <f>IF(B34="common", 4, IF(B34="uncommon", 3, IF(B34="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B34="common", 4, IF(B34="uncommon", 3, IF(B34="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1468,18 +1473,18 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C35" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E35" s="3" t="inlineStr"/>
+        <v>0.45</v>
+      </c>
+      <c r="E35" s="3" t="n"/>
       <c r="F35" s="3">
-        <f>IF(B35="common", 4, IF(B35="uncommon", 3, IF(B35="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B35="common", 4, IF(B35="uncommon", 3, IF(B35="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1491,7 +1496,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C36" s="3" t="n">
@@ -1504,7 +1509,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" s="3">
-        <f>IF(B36="common", 4, IF(B36="uncommon", 3, IF(B36="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B36="common", 4, IF(B36="uncommon", 3, IF(B36="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1516,18 +1521,18 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C37" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="E37" s="3" t="inlineStr"/>
+        <v>6.66</v>
+      </c>
+      <c r="E37" s="3" t="n"/>
       <c r="F37" s="3">
-        <f>IF(B37="common", 4, IF(B37="uncommon", 3, IF(B37="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B37="common", 4, IF(B37="uncommon", 3, IF(B37="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1539,18 +1544,18 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C38" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E38" s="3" t="inlineStr"/>
+        <v>0.36</v>
+      </c>
+      <c r="E38" s="3" t="n"/>
       <c r="F38" s="3">
-        <f>IF(B38="common", 4, IF(B38="uncommon", 3, IF(B38="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B38="common", 4, IF(B38="uncommon", 3, IF(B38="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1562,7 +1567,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C39" s="3" t="n">
@@ -1575,7 +1580,7 @@
         <v>0.09</v>
       </c>
       <c r="F39" s="3">
-        <f>IF(B39="common", 4, IF(B39="uncommon", 3, IF(B39="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B39="common", 4, IF(B39="uncommon", 3, IF(B39="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1587,18 +1592,18 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C40" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E40" s="3" t="inlineStr"/>
+        <v>1.84</v>
+      </c>
+      <c r="E40" s="3" t="n"/>
       <c r="F40" s="3">
-        <f>IF(B40="common", 4, IF(B40="uncommon", 3, IF(B40="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B40="common", 4, IF(B40="uncommon", 3, IF(B40="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1610,7 +1615,7 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C41" s="3" t="n">
@@ -1619,9 +1624,9 @@
       <c r="D41" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="E41" s="3" t="inlineStr"/>
+      <c r="E41" s="3" t="n"/>
       <c r="F41" s="3">
-        <f>IF(B41="common", 4, IF(B41="uncommon", 3, IF(B41="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B41="common", 4, IF(B41="uncommon", 3, IF(B41="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1633,20 +1638,20 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C42" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="E42" s="3" t="n">
         <v>0.4</v>
       </c>
       <c r="F42" s="3">
-        <f>IF(B42="common", 4, IF(B42="uncommon", 3, IF(B42="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B42="common", 4, IF(B42="uncommon", 3, IF(B42="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1658,18 +1663,18 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C43" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="E43" s="3" t="inlineStr"/>
+        <v>2.42</v>
+      </c>
+      <c r="E43" s="3" t="n"/>
       <c r="F43" s="3">
-        <f>IF(B43="common", 4, IF(B43="uncommon", 3, IF(B43="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B43="common", 4, IF(B43="uncommon", 3, IF(B43="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1681,20 +1686,20 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C44" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="F44" s="3">
-        <f>IF(B44="common", 4, IF(B44="uncommon", 3, IF(B44="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B44="common", 4, IF(B44="uncommon", 3, IF(B44="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1706,18 +1711,18 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C45" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="E45" s="3" t="inlineStr"/>
+        <v>15.25</v>
+      </c>
+      <c r="E45" s="3" t="n"/>
       <c r="F45" s="3">
-        <f>IF(B45="common", 4, IF(B45="uncommon", 3, IF(B45="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B45="common", 4, IF(B45="uncommon", 3, IF(B45="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1729,18 +1734,18 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C46" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="E46" s="3" t="inlineStr"/>
+        <v>4.61</v>
+      </c>
+      <c r="E46" s="3" t="n"/>
       <c r="F46" s="3">
-        <f>IF(B46="common", 4, IF(B46="uncommon", 3, IF(B46="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B46="common", 4, IF(B46="uncommon", 3, IF(B46="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1752,20 +1757,20 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C47" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F47" s="3">
-        <f>IF(B47="common", 4, IF(B47="uncommon", 3, IF(B47="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B47="common", 4, IF(B47="uncommon", 3, IF(B47="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1777,18 +1782,18 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C48" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E48" s="3" t="inlineStr"/>
+        <v>0.64</v>
+      </c>
+      <c r="E48" s="3" t="n"/>
       <c r="F48" s="3">
-        <f>IF(B48="common", 4, IF(B48="uncommon", 3, IF(B48="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B48="common", 4, IF(B48="uncommon", 3, IF(B48="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1800,7 +1805,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C49" s="3" t="n">
@@ -1813,7 +1818,7 @@
         <v>0.12</v>
       </c>
       <c r="F49" s="3">
-        <f>IF(B49="common", 4, IF(B49="uncommon", 3, IF(B49="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B49="common", 4, IF(B49="uncommon", 3, IF(B49="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1825,18 +1830,18 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C50" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E50" s="3" t="inlineStr"/>
+        <v>2.53</v>
+      </c>
+      <c r="E50" s="3" t="n"/>
       <c r="F50" s="3">
-        <f>IF(B50="common", 4, IF(B50="uncommon", 3, IF(B50="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B50="common", 4, IF(B50="uncommon", 3, IF(B50="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1848,7 +1853,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C51" s="3" t="n">
@@ -1857,9 +1862,9 @@
       <c r="D51" s="3" t="n">
         <v>0.32</v>
       </c>
-      <c r="E51" s="3" t="inlineStr"/>
+      <c r="E51" s="3" t="n"/>
       <c r="F51" s="3">
-        <f>IF(B51="common", 4, IF(B51="uncommon", 3, IF(B51="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B51="common", 4, IF(B51="uncommon", 3, IF(B51="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1871,20 +1876,20 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C52" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E52" s="3" t="n">
         <v>0.15</v>
       </c>
       <c r="F52" s="3">
-        <f>IF(B52="common", 4, IF(B52="uncommon", 3, IF(B52="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B52="common", 4, IF(B52="uncommon", 3, IF(B52="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1896,18 +1901,18 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C53" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E53" s="3" t="inlineStr"/>
+        <v>0.59</v>
+      </c>
+      <c r="E53" s="3" t="n"/>
       <c r="F53" s="3">
-        <f>IF(B53="common", 4, IF(B53="uncommon", 3, IF(B53="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B53="common", 4, IF(B53="uncommon", 3, IF(B53="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1919,7 +1924,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C54" s="3" t="n">
@@ -1928,9 +1933,9 @@
       <c r="D54" s="3" t="n">
         <v>177.52</v>
       </c>
-      <c r="E54" s="3" t="inlineStr"/>
+      <c r="E54" s="3" t="n"/>
       <c r="F54" s="3">
-        <f>IF(B54="common", 4, IF(B54="uncommon", 3, IF(B54="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B54="common", 4, IF(B54="uncommon", 3, IF(B54="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1942,20 +1947,20 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C55" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F55" s="3">
-        <f>IF(B55="common", 4, IF(B55="uncommon", 3, IF(B55="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B55="common", 4, IF(B55="uncommon", 3, IF(B55="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1967,18 +1972,18 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C56" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E56" s="3" t="inlineStr"/>
+        <v>0.68</v>
+      </c>
+      <c r="E56" s="3" t="n"/>
       <c r="F56" s="3">
-        <f>IF(B56="common", 4, IF(B56="uncommon", 3, IF(B56="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B56="common", 4, IF(B56="uncommon", 3, IF(B56="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1990,18 +1995,18 @@
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C57" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="E57" s="3" t="inlineStr"/>
+        <v>0.77</v>
+      </c>
+      <c r="E57" s="3" t="n"/>
       <c r="F57" s="3">
-        <f>IF(B57="common", 4, IF(B57="uncommon", 3, IF(B57="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B57="common", 4, IF(B57="uncommon", 3, IF(B57="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2013,18 +2018,18 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C58" s="3" t="n">
         <v>1440</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="E58" s="3" t="inlineStr"/>
+        <v>25.69</v>
+      </c>
+      <c r="E58" s="3" t="n"/>
       <c r="F58" s="3">
-        <f>IF(B58="common", 4, IF(B58="uncommon", 3, IF(B58="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B58="common", 4, IF(B58="uncommon", 3, IF(B58="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2036,7 +2041,7 @@
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C59" s="3" t="n">
@@ -2049,7 +2054,7 @@
         <v>0.06</v>
       </c>
       <c r="F59" s="3">
-        <f>IF(B59="common", 4, IF(B59="uncommon", 3, IF(B59="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B59="common", 4, IF(B59="uncommon", 3, IF(B59="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2061,18 +2066,18 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C60" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="E60" s="3" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E60" s="3" t="n"/>
       <c r="F60" s="3">
-        <f>IF(B60="common", 4, IF(B60="uncommon", 3, IF(B60="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B60="common", 4, IF(B60="uncommon", 3, IF(B60="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2084,7 +2089,7 @@
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C61" s="3" t="n">
@@ -2093,9 +2098,9 @@
       <c r="D61" s="3" t="n">
         <v>0.37</v>
       </c>
-      <c r="E61" s="3" t="inlineStr"/>
+      <c r="E61" s="3" t="n"/>
       <c r="F61" s="3">
-        <f>IF(B61="common", 4, IF(B61="uncommon", 3, IF(B61="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B61="common", 4, IF(B61="uncommon", 3, IF(B61="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2107,20 +2112,20 @@
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C62" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="E62" s="3" t="n">
         <v>0.42</v>
       </c>
       <c r="F62" s="3">
-        <f>IF(B62="common", 4, IF(B62="uncommon", 3, IF(B62="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B62="common", 4, IF(B62="uncommon", 3, IF(B62="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2132,18 +2137,18 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C63" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E63" s="3" t="inlineStr"/>
+        <v>2.33</v>
+      </c>
+      <c r="E63" s="3" t="n"/>
       <c r="F63" s="3">
-        <f>IF(B63="common", 4, IF(B63="uncommon", 3, IF(B63="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B63="common", 4, IF(B63="uncommon", 3, IF(B63="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2155,18 +2160,18 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C64" s="3" t="n">
         <v>1440</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>49.52</v>
-      </c>
-      <c r="E64" s="3" t="inlineStr"/>
+        <v>49.4</v>
+      </c>
+      <c r="E64" s="3" t="n"/>
       <c r="F64" s="3">
-        <f>IF(B64="common", 4, IF(B64="uncommon", 3, IF(B64="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B64="common", 4, IF(B64="uncommon", 3, IF(B64="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2178,7 +2183,7 @@
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C65" s="3" t="n">
@@ -2188,10 +2193,10 @@
         <v>0.06</v>
       </c>
       <c r="E65" s="3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F65" s="3">
-        <f>IF(B65="common", 4, IF(B65="uncommon", 3, IF(B65="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B65="common", 4, IF(B65="uncommon", 3, IF(B65="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2203,18 +2208,18 @@
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C66" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="E66" s="3" t="inlineStr"/>
+        <v>3.22</v>
+      </c>
+      <c r="E66" s="3" t="n"/>
       <c r="F66" s="3">
-        <f>IF(B66="common", 4, IF(B66="uncommon", 3, IF(B66="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B66="common", 4, IF(B66="uncommon", 3, IF(B66="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2226,18 +2231,18 @@
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C67" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E67" s="3" t="inlineStr"/>
+        <v>0.54</v>
+      </c>
+      <c r="E67" s="3" t="n"/>
       <c r="F67" s="3">
-        <f>IF(B67="common", 4, IF(B67="uncommon", 3, IF(B67="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B67="common", 4, IF(B67="uncommon", 3, IF(B67="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2249,18 +2254,18 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C68" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="E68" s="3" t="inlineStr"/>
+        <v>2.26</v>
+      </c>
+      <c r="E68" s="3" t="n"/>
       <c r="F68" s="3">
-        <f>IF(B68="common", 4, IF(B68="uncommon", 3, IF(B68="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B68="common", 4, IF(B68="uncommon", 3, IF(B68="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2272,7 +2277,7 @@
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C69" s="3" t="n">
@@ -2281,9 +2286,9 @@
       <c r="D69" s="3" t="n">
         <v>149.52</v>
       </c>
-      <c r="E69" s="3" t="inlineStr"/>
+      <c r="E69" s="3" t="n"/>
       <c r="F69" s="3">
-        <f>IF(B69="common", 4, IF(B69="uncommon", 3, IF(B69="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B69="common", 4, IF(B69="uncommon", 3, IF(B69="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2295,20 +2300,20 @@
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C70" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D70" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E70" s="3" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="F70" s="3">
-        <f>IF(B70="common", 4, IF(B70="uncommon", 3, IF(B70="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B70="common", 4, IF(B70="uncommon", 3, IF(B70="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2320,18 +2325,18 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C71" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="E71" s="3" t="inlineStr"/>
+        <v>10.94</v>
+      </c>
+      <c r="E71" s="3" t="n"/>
       <c r="F71" s="3">
-        <f>IF(B71="common", 4, IF(B71="uncommon", 3, IF(B71="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B71="common", 4, IF(B71="uncommon", 3, IF(B71="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2343,18 +2348,18 @@
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C72" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E72" s="3" t="inlineStr"/>
+        <v>2.18</v>
+      </c>
+      <c r="E72" s="3" t="n"/>
       <c r="F72" s="3">
-        <f>IF(B72="common", 4, IF(B72="uncommon", 3, IF(B72="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B72="common", 4, IF(B72="uncommon", 3, IF(B72="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2366,7 +2371,7 @@
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C73" s="3" t="n">
@@ -2375,9 +2380,9 @@
       <c r="D73" s="3" t="n">
         <v>32.87</v>
       </c>
-      <c r="E73" s="3" t="inlineStr"/>
+      <c r="E73" s="3" t="n"/>
       <c r="F73" s="3">
-        <f>IF(B73="common", 4, IF(B73="uncommon", 3, IF(B73="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B73="common", 4, IF(B73="uncommon", 3, IF(B73="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2389,7 +2394,7 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C74" s="3" t="n">
@@ -2399,10 +2404,10 @@
         <v>0.1</v>
       </c>
       <c r="E74" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F74" s="3">
-        <f>IF(B74="common", 4, IF(B74="uncommon", 3, IF(B74="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B74="common", 4, IF(B74="uncommon", 3, IF(B74="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2414,18 +2419,18 @@
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C75" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D75" s="3" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="E75" s="3" t="inlineStr"/>
+        <v>9.369999999999999</v>
+      </c>
+      <c r="E75" s="3" t="n"/>
       <c r="F75" s="3">
-        <f>IF(B75="common", 4, IF(B75="uncommon", 3, IF(B75="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B75="common", 4, IF(B75="uncommon", 3, IF(B75="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2437,18 +2442,18 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C76" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="E76" s="3" t="inlineStr"/>
+        <v>3.07</v>
+      </c>
+      <c r="E76" s="3" t="n"/>
       <c r="F76" s="3">
-        <f>IF(B76="common", 4, IF(B76="uncommon", 3, IF(B76="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B76="common", 4, IF(B76="uncommon", 3, IF(B76="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2460,20 +2465,20 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C77" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="E77" s="3" t="n">
         <v>0.26</v>
       </c>
       <c r="F77" s="3">
-        <f>IF(B77="common", 4, IF(B77="uncommon", 3, IF(B77="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B77="common", 4, IF(B77="uncommon", 3, IF(B77="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2485,18 +2490,18 @@
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C78" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>15.48</v>
-      </c>
-      <c r="E78" s="3" t="inlineStr"/>
+        <v>15.22</v>
+      </c>
+      <c r="E78" s="3" t="n"/>
       <c r="F78" s="3">
-        <f>IF(B78="common", 4, IF(B78="uncommon", 3, IF(B78="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B78="common", 4, IF(B78="uncommon", 3, IF(B78="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2508,18 +2513,18 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C79" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="E79" s="3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E79" s="3" t="n"/>
       <c r="F79" s="3">
-        <f>IF(B79="common", 4, IF(B79="uncommon", 3, IF(B79="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B79="common", 4, IF(B79="uncommon", 3, IF(B79="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2531,7 +2536,7 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C80" s="3" t="n">
@@ -2544,7 +2549,7 @@
         <v>0.08</v>
       </c>
       <c r="F80" s="3">
-        <f>IF(B80="common", 4, IF(B80="uncommon", 3, IF(B80="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B80="common", 4, IF(B80="uncommon", 3, IF(B80="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2556,18 +2561,18 @@
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C81" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D81" s="3" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="E81" s="3" t="inlineStr"/>
+        <v>3.34</v>
+      </c>
+      <c r="E81" s="3" t="n"/>
       <c r="F81" s="3">
-        <f>IF(B81="common", 4, IF(B81="uncommon", 3, IF(B81="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B81="common", 4, IF(B81="uncommon", 3, IF(B81="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2579,18 +2584,18 @@
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C82" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D82" s="3" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="E82" s="3" t="inlineStr"/>
+        <v>0.64</v>
+      </c>
+      <c r="E82" s="3" t="n"/>
       <c r="F82" s="3">
-        <f>IF(B82="common", 4, IF(B82="uncommon", 3, IF(B82="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B82="common", 4, IF(B82="uncommon", 3, IF(B82="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2602,20 +2607,20 @@
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C83" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F83" s="3">
-        <f>IF(B83="common", 4, IF(B83="uncommon", 3, IF(B83="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B83="common", 4, IF(B83="uncommon", 3, IF(B83="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2627,18 +2632,18 @@
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C84" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D84" s="3" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="E84" s="3" t="inlineStr"/>
+        <v>5.41</v>
+      </c>
+      <c r="E84" s="3" t="n"/>
       <c r="F84" s="3">
-        <f>IF(B84="common", 4, IF(B84="uncommon", 3, IF(B84="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B84="common", 4, IF(B84="uncommon", 3, IF(B84="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2650,18 +2655,18 @@
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C85" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="E85" s="3" t="inlineStr"/>
+        <v>1.27</v>
+      </c>
+      <c r="E85" s="3" t="n"/>
       <c r="F85" s="3">
-        <f>IF(B85="common", 4, IF(B85="uncommon", 3, IF(B85="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B85="common", 4, IF(B85="uncommon", 3, IF(B85="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2673,20 +2678,20 @@
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C86" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D86" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E86" s="3" t="n">
         <v>0.22</v>
       </c>
       <c r="F86" s="3">
-        <f>IF(B86="common", 4, IF(B86="uncommon", 3, IF(B86="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B86="common", 4, IF(B86="uncommon", 3, IF(B86="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2698,18 +2703,18 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C87" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D87" s="3" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="E87" s="3" t="inlineStr"/>
+        <v>3.58</v>
+      </c>
+      <c r="E87" s="3" t="n"/>
       <c r="F87" s="3">
-        <f>IF(B87="common", 4, IF(B87="uncommon", 3, IF(B87="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B87="common", 4, IF(B87="uncommon", 3, IF(B87="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2721,7 +2726,7 @@
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C88" s="3" t="n">
@@ -2730,9 +2735,9 @@
       <c r="D88" s="3" t="n">
         <v>1.05</v>
       </c>
-      <c r="E88" s="3" t="inlineStr"/>
+      <c r="E88" s="3" t="n"/>
       <c r="F88" s="3">
-        <f>IF(B88="common", 4, IF(B88="uncommon", 3, IF(B88="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B88="common", 4, IF(B88="uncommon", 3, IF(B88="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2744,7 +2749,7 @@
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C89" s="3" t="n">
@@ -2754,10 +2759,10 @@
         <v>0.26</v>
       </c>
       <c r="E89" s="3" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="F89" s="3">
-        <f>IF(B89="common", 4, IF(B89="uncommon", 3, IF(B89="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B89="common", 4, IF(B89="uncommon", 3, IF(B89="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2769,18 +2774,18 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C90" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D90" s="3" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="E90" s="3" t="inlineStr"/>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E90" s="3" t="n"/>
       <c r="F90" s="3">
-        <f>IF(B90="common", 4, IF(B90="uncommon", 3, IF(B90="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B90="common", 4, IF(B90="uncommon", 3, IF(B90="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2792,18 +2797,18 @@
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C91" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D91" s="3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="E91" s="3" t="inlineStr"/>
+        <v>1.27</v>
+      </c>
+      <c r="E91" s="3" t="n"/>
       <c r="F91" s="3">
-        <f>IF(B91="common", 4, IF(B91="uncommon", 3, IF(B91="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B91="common", 4, IF(B91="uncommon", 3, IF(B91="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2815,20 +2820,20 @@
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C92" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D92" s="3" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E92" s="3" t="n">
         <v>0.16</v>
       </c>
       <c r="F92" s="3">
-        <f>IF(B92="common", 4, IF(B92="uncommon", 3, IF(B92="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B92="common", 4, IF(B92="uncommon", 3, IF(B92="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2840,18 +2845,18 @@
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C93" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D93" s="3" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E93" s="3" t="inlineStr"/>
+        <v>4.46</v>
+      </c>
+      <c r="E93" s="3" t="n"/>
       <c r="F93" s="3">
-        <f>IF(B93="common", 4, IF(B93="uncommon", 3, IF(B93="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B93="common", 4, IF(B93="uncommon", 3, IF(B93="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2863,18 +2868,18 @@
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C94" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D94" s="3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="E94" s="3" t="inlineStr"/>
+        <v>1.08</v>
+      </c>
+      <c r="E94" s="3" t="n"/>
       <c r="F94" s="3">
-        <f>IF(B94="common", 4, IF(B94="uncommon", 3, IF(B94="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B94="common", 4, IF(B94="uncommon", 3, IF(B94="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2886,20 +2891,20 @@
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C95" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="E95" s="3" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="F95" s="3">
-        <f>IF(B95="common", 4, IF(B95="uncommon", 3, IF(B95="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B95="common", 4, IF(B95="uncommon", 3, IF(B95="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2911,18 +2916,18 @@
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C96" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D96" s="3" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="E96" s="3" t="inlineStr"/>
+        <v>1.67</v>
+      </c>
+      <c r="E96" s="3" t="n"/>
       <c r="F96" s="3">
-        <f>IF(B96="common", 4, IF(B96="uncommon", 3, IF(B96="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B96="common", 4, IF(B96="uncommon", 3, IF(B96="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2934,20 +2939,20 @@
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C97" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D97" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E97" s="3" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F97" s="3">
-        <f>IF(B97="common", 4, IF(B97="uncommon", 3, IF(B97="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B97="common", 4, IF(B97="uncommon", 3, IF(B97="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2959,18 +2964,18 @@
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C98" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D98" s="3" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="E98" s="3" t="inlineStr"/>
+        <v>13.54</v>
+      </c>
+      <c r="E98" s="3" t="n"/>
       <c r="F98" s="3">
-        <f>IF(B98="common", 4, IF(B98="uncommon", 3, IF(B98="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B98="common", 4, IF(B98="uncommon", 3, IF(B98="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2982,18 +2987,18 @@
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C99" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D99" s="3" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="E99" s="3" t="inlineStr"/>
+        <v>1.68</v>
+      </c>
+      <c r="E99" s="3" t="n"/>
       <c r="F99" s="3">
-        <f>IF(B99="common", 4, IF(B99="uncommon", 3, IF(B99="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B99="common", 4, IF(B99="uncommon", 3, IF(B99="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3005,18 +3010,18 @@
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C100" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D100" s="3" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="E100" s="3" t="inlineStr"/>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E100" s="3" t="n"/>
       <c r="F100" s="3">
-        <f>IF(B100="common", 4, IF(B100="uncommon", 3, IF(B100="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B100="common", 4, IF(B100="uncommon", 3, IF(B100="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3028,7 +3033,7 @@
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C101" s="3" t="n">
@@ -3037,9 +3042,9 @@
       <c r="D101" s="3" t="n">
         <v>171.68</v>
       </c>
-      <c r="E101" s="3" t="inlineStr"/>
+      <c r="E101" s="3" t="n"/>
       <c r="F101" s="3">
-        <f>IF(B101="common", 4, IF(B101="uncommon", 3, IF(B101="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B101="common", 4, IF(B101="uncommon", 3, IF(B101="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3051,18 +3056,18 @@
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C102" s="3" t="n">
         <v>161</v>
       </c>
       <c r="D102" s="3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="E102" s="3" t="inlineStr"/>
+        <v>1.98</v>
+      </c>
+      <c r="E102" s="3" t="n"/>
       <c r="F102" s="3">
-        <f>IF(B102="common", 4, IF(B102="uncommon", 3, IF(B102="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B102="common", 4, IF(B102="uncommon", 3, IF(B102="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3074,20 +3079,20 @@
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C103" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D103" s="3" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="E103" s="3" t="n">
         <v>0.46</v>
       </c>
       <c r="F103" s="3">
-        <f>IF(B103="common", 4, IF(B103="uncommon", 3, IF(B103="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B103="common", 4, IF(B103="uncommon", 3, IF(B103="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3099,18 +3104,18 @@
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C104" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D104" s="3" t="n">
-        <v>43.96</v>
-      </c>
-      <c r="E104" s="3" t="inlineStr"/>
+        <v>43.75</v>
+      </c>
+      <c r="E104" s="3" t="n"/>
       <c r="F104" s="3">
-        <f>IF(B104="common", 4, IF(B104="uncommon", 3, IF(B104="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B104="common", 4, IF(B104="uncommon", 3, IF(B104="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3122,18 +3127,18 @@
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C105" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D105" s="3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E105" s="3" t="inlineStr"/>
+        <v>2.12</v>
+      </c>
+      <c r="E105" s="3" t="n"/>
       <c r="F105" s="3">
-        <f>IF(B105="common", 4, IF(B105="uncommon", 3, IF(B105="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B105="common", 4, IF(B105="uncommon", 3, IF(B105="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3145,18 +3150,18 @@
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C106" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D106" s="3" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="E106" s="3" t="inlineStr"/>
+        <v>3.4</v>
+      </c>
+      <c r="E106" s="3" t="n"/>
       <c r="F106" s="3">
-        <f>IF(B106="common", 4, IF(B106="uncommon", 3, IF(B106="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B106="common", 4, IF(B106="uncommon", 3, IF(B106="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3168,7 +3173,7 @@
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C107" s="3" t="n">
@@ -3177,9 +3182,9 @@
       <c r="D107" s="3" t="n">
         <v>344.29</v>
       </c>
-      <c r="E107" s="3" t="inlineStr"/>
+      <c r="E107" s="3" t="n"/>
       <c r="F107" s="3">
-        <f>IF(B107="common", 4, IF(B107="uncommon", 3, IF(B107="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B107="common", 4, IF(B107="uncommon", 3, IF(B107="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3191,7 +3196,7 @@
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C108" s="3" t="n">
@@ -3204,7 +3209,7 @@
         <v>0.08</v>
       </c>
       <c r="F108" s="3">
-        <f>IF(B108="common", 4, IF(B108="uncommon", 3, IF(B108="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B108="common", 4, IF(B108="uncommon", 3, IF(B108="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3216,18 +3221,18 @@
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C109" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D109" s="3" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="E109" s="3" t="inlineStr"/>
+        <v>3.33</v>
+      </c>
+      <c r="E109" s="3" t="n"/>
       <c r="F109" s="3">
-        <f>IF(B109="common", 4, IF(B109="uncommon", 3, IF(B109="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B109="common", 4, IF(B109="uncommon", 3, IF(B109="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3239,7 +3244,7 @@
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C110" s="3" t="n">
@@ -3248,9 +3253,9 @@
       <c r="D110" s="3" t="n">
         <v>0.42</v>
       </c>
-      <c r="E110" s="3" t="inlineStr"/>
+      <c r="E110" s="3" t="n"/>
       <c r="F110" s="3">
-        <f>IF(B110="common", 4, IF(B110="uncommon", 3, IF(B110="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B110="common", 4, IF(B110="uncommon", 3, IF(B110="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3262,20 +3267,20 @@
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C111" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D111" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E111" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="F111" s="3">
-        <f>IF(B111="common", 4, IF(B111="uncommon", 3, IF(B111="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B111="common", 4, IF(B111="uncommon", 3, IF(B111="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3287,18 +3292,18 @@
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C112" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D112" s="3" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="E112" s="3" t="inlineStr"/>
+        <v>10.41</v>
+      </c>
+      <c r="E112" s="3" t="n"/>
       <c r="F112" s="3">
-        <f>IF(B112="common", 4, IF(B112="uncommon", 3, IF(B112="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B112="common", 4, IF(B112="uncommon", 3, IF(B112="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3310,7 +3315,7 @@
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C113" s="3" t="n">
@@ -3319,9 +3324,9 @@
       <c r="D113" s="3" t="n">
         <v>0.43</v>
       </c>
-      <c r="E113" s="3" t="inlineStr"/>
+      <c r="E113" s="3" t="n"/>
       <c r="F113" s="3">
-        <f>IF(B113="common", 4, IF(B113="uncommon", 3, IF(B113="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B113="common", 4, IF(B113="uncommon", 3, IF(B113="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3333,7 +3338,7 @@
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C114" s="3" t="n">
@@ -3346,7 +3351,7 @@
         <v>0.12</v>
       </c>
       <c r="F114" s="3">
-        <f>IF(B114="common", 4, IF(B114="uncommon", 3, IF(B114="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B114="common", 4, IF(B114="uncommon", 3, IF(B114="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3358,7 +3363,7 @@
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C115" s="3" t="n">
@@ -3367,9 +3372,9 @@
       <c r="D115" s="3" t="n">
         <v>0.37</v>
       </c>
-      <c r="E115" s="3" t="inlineStr"/>
+      <c r="E115" s="3" t="n"/>
       <c r="F115" s="3">
-        <f>IF(B115="common", 4, IF(B115="uncommon", 3, IF(B115="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B115="common", 4, IF(B115="uncommon", 3, IF(B115="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3381,20 +3386,20 @@
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C116" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D116" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E116" s="3" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F116" s="3">
-        <f>IF(B116="common", 4, IF(B116="uncommon", 3, IF(B116="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B116="common", 4, IF(B116="uncommon", 3, IF(B116="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3406,18 +3411,18 @@
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C117" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D117" s="3" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="E117" s="3" t="inlineStr"/>
+        <v>8.83</v>
+      </c>
+      <c r="E117" s="3" t="n"/>
       <c r="F117" s="3">
-        <f>IF(B117="common", 4, IF(B117="uncommon", 3, IF(B117="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B117="common", 4, IF(B117="uncommon", 3, IF(B117="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3429,18 +3434,18 @@
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C118" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D118" s="3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E118" s="3" t="inlineStr"/>
+        <v>1.21</v>
+      </c>
+      <c r="E118" s="3" t="n"/>
       <c r="F118" s="3">
-        <f>IF(B118="common", 4, IF(B118="uncommon", 3, IF(B118="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B118="common", 4, IF(B118="uncommon", 3, IF(B118="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3452,7 +3457,7 @@
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C119" s="3" t="n">
@@ -3465,7 +3470,7 @@
         <v>0.15</v>
       </c>
       <c r="F119" s="3">
-        <f>IF(B119="common", 4, IF(B119="uncommon", 3, IF(B119="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B119="common", 4, IF(B119="uncommon", 3, IF(B119="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3477,18 +3482,18 @@
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C120" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D120" s="3" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E120" s="3" t="inlineStr"/>
+        <v>0.43</v>
+      </c>
+      <c r="E120" s="3" t="n"/>
       <c r="F120" s="3">
-        <f>IF(B120="common", 4, IF(B120="uncommon", 3, IF(B120="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B120="common", 4, IF(B120="uncommon", 3, IF(B120="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3500,20 +3505,20 @@
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C121" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E121" s="3" t="n">
         <v>0.11</v>
       </c>
       <c r="F121" s="3">
-        <f>IF(B121="common", 4, IF(B121="uncommon", 3, IF(B121="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B121="common", 4, IF(B121="uncommon", 3, IF(B121="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3525,18 +3530,18 @@
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C122" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D122" s="3" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="E122" s="3" t="inlineStr"/>
+        <v>6.99</v>
+      </c>
+      <c r="E122" s="3" t="n"/>
       <c r="F122" s="3">
-        <f>IF(B122="common", 4, IF(B122="uncommon", 3, IF(B122="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B122="common", 4, IF(B122="uncommon", 3, IF(B122="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3548,7 +3553,7 @@
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C123" s="3" t="n">
@@ -3557,9 +3562,9 @@
       <c r="D123" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="E123" s="3" t="inlineStr"/>
+      <c r="E123" s="3" t="n"/>
       <c r="F123" s="3">
-        <f>IF(B123="common", 4, IF(B123="uncommon", 3, IF(B123="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B123="common", 4, IF(B123="uncommon", 3, IF(B123="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3571,20 +3576,20 @@
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C124" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D124" s="3" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="E124" s="3" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="F124" s="3">
-        <f>IF(B124="common", 4, IF(B124="uncommon", 3, IF(B124="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B124="common", 4, IF(B124="uncommon", 3, IF(B124="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3596,7 +3601,7 @@
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C125" s="3" t="n">
@@ -3605,9 +3610,9 @@
       <c r="D125" s="3" t="n">
         <v>34.96</v>
       </c>
-      <c r="E125" s="3" t="inlineStr"/>
+      <c r="E125" s="3" t="n"/>
       <c r="F125" s="3">
-        <f>IF(B125="common", 4, IF(B125="uncommon", 3, IF(B125="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B125="common", 4, IF(B125="uncommon", 3, IF(B125="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3619,18 +3624,18 @@
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C126" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D126" s="3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="E126" s="3" t="inlineStr"/>
+        <v>1.6</v>
+      </c>
+      <c r="E126" s="3" t="n"/>
       <c r="F126" s="3">
-        <f>IF(B126="common", 4, IF(B126="uncommon", 3, IF(B126="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B126="common", 4, IF(B126="uncommon", 3, IF(B126="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3642,18 +3647,18 @@
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C127" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D127" s="3" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="E127" s="3" t="inlineStr"/>
+        <v>11.97</v>
+      </c>
+      <c r="E127" s="3" t="n"/>
       <c r="F127" s="3">
-        <f>IF(B127="common", 4, IF(B127="uncommon", 3, IF(B127="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B127="common", 4, IF(B127="uncommon", 3, IF(B127="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3665,18 +3670,18 @@
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C128" s="3" t="n">
         <v>1440</v>
       </c>
       <c r="D128" s="3" t="n">
-        <v>294.47</v>
-      </c>
-      <c r="E128" s="3" t="inlineStr"/>
+        <v>286.72</v>
+      </c>
+      <c r="E128" s="3" t="n"/>
       <c r="F128" s="3">
-        <f>IF(B128="common", 4, IF(B128="uncommon", 3, IF(B128="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B128="common", 4, IF(B128="uncommon", 3, IF(B128="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3688,20 +3693,20 @@
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C129" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D129" s="3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E129" s="3" t="n">
         <v>0.16</v>
       </c>
       <c r="F129" s="3">
-        <f>IF(B129="common", 4, IF(B129="uncommon", 3, IF(B129="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B129="common", 4, IF(B129="uncommon", 3, IF(B129="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3713,18 +3718,18 @@
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C130" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D130" s="3" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="E130" s="3" t="inlineStr"/>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="E130" s="3" t="n"/>
       <c r="F130" s="3">
-        <f>IF(B130="common", 4, IF(B130="uncommon", 3, IF(B130="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B130="common", 4, IF(B130="uncommon", 3, IF(B130="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3736,18 +3741,18 @@
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C131" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D131" s="3" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E131" s="3" t="inlineStr"/>
+        <v>0.45</v>
+      </c>
+      <c r="E131" s="3" t="n"/>
       <c r="F131" s="3">
-        <f>IF(B131="common", 4, IF(B131="uncommon", 3, IF(B131="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B131="common", 4, IF(B131="uncommon", 3, IF(B131="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3759,7 +3764,7 @@
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C132" s="3" t="n">
@@ -3772,7 +3777,7 @@
         <v>0.1</v>
       </c>
       <c r="F132" s="3">
-        <f>IF(B132="common", 4, IF(B132="uncommon", 3, IF(B132="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B132="common", 4, IF(B132="uncommon", 3, IF(B132="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3784,18 +3789,18 @@
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C133" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D133" s="3" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E133" s="3" t="inlineStr"/>
+        <v>0.32</v>
+      </c>
+      <c r="E133" s="3" t="n"/>
       <c r="F133" s="3">
-        <f>IF(B133="common", 4, IF(B133="uncommon", 3, IF(B133="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B133="common", 4, IF(B133="uncommon", 3, IF(B133="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3807,18 +3812,18 @@
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C134" s="3" t="n">
         <v>161</v>
       </c>
       <c r="D134" s="3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="E134" s="3" t="inlineStr"/>
+        <v>1.87</v>
+      </c>
+      <c r="E134" s="3" t="n"/>
       <c r="F134" s="3">
-        <f>IF(B134="common", 4, IF(B134="uncommon", 3, IF(B134="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B134="common", 4, IF(B134="uncommon", 3, IF(B134="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3830,7 +3835,7 @@
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C135" s="3" t="n">
@@ -3843,7 +3848,7 @@
         <v>0.1</v>
       </c>
       <c r="F135" s="3">
-        <f>IF(B135="common", 4, IF(B135="uncommon", 3, IF(B135="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B135="common", 4, IF(B135="uncommon", 3, IF(B135="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3855,18 +3860,18 @@
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C136" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D136" s="3" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="E136" s="3" t="inlineStr"/>
+        <v>6.76</v>
+      </c>
+      <c r="E136" s="3" t="n"/>
       <c r="F136" s="3">
-        <f>IF(B136="common", 4, IF(B136="uncommon", 3, IF(B136="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B136="common", 4, IF(B136="uncommon", 3, IF(B136="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3878,7 +3883,7 @@
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C137" s="3" t="n">
@@ -3887,9 +3892,9 @@
       <c r="D137" s="3" t="n">
         <v>0.35</v>
       </c>
-      <c r="E137" s="3" t="inlineStr"/>
+      <c r="E137" s="3" t="n"/>
       <c r="F137" s="3">
-        <f>IF(B137="common", 4, IF(B137="uncommon", 3, IF(B137="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B137="common", 4, IF(B137="uncommon", 3, IF(B137="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3901,7 +3906,7 @@
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C138" s="3" t="n">
@@ -3910,9 +3915,9 @@
       <c r="D138" s="3" t="n">
         <v>93.89</v>
       </c>
-      <c r="E138" s="3" t="inlineStr"/>
+      <c r="E138" s="3" t="n"/>
       <c r="F138" s="3">
-        <f>IF(B138="common", 4, IF(B138="uncommon", 3, IF(B138="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B138="common", 4, IF(B138="uncommon", 3, IF(B138="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3924,18 +3929,18 @@
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C139" s="3" t="n">
         <v>161</v>
       </c>
       <c r="D139" s="3" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E139" s="3" t="inlineStr"/>
+        <v>0.63</v>
+      </c>
+      <c r="E139" s="3" t="n"/>
       <c r="F139" s="3">
-        <f>IF(B139="common", 4, IF(B139="uncommon", 3, IF(B139="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B139="common", 4, IF(B139="uncommon", 3, IF(B139="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3947,20 +3952,20 @@
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C140" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D140" s="3" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="E140" s="3" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="F140" s="3">
-        <f>IF(B140="common", 4, IF(B140="uncommon", 3, IF(B140="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B140="common", 4, IF(B140="uncommon", 3, IF(B140="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3972,18 +3977,18 @@
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C141" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D141" s="3" t="n">
-        <v>34.56</v>
-      </c>
-      <c r="E141" s="3" t="inlineStr"/>
+        <v>34.26</v>
+      </c>
+      <c r="E141" s="3" t="n"/>
       <c r="F141" s="3">
-        <f>IF(B141="common", 4, IF(B141="uncommon", 3, IF(B141="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B141="common", 4, IF(B141="uncommon", 3, IF(B141="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3995,18 +4000,18 @@
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C142" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D142" s="3" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="E142" s="3" t="inlineStr"/>
+        <v>1.48</v>
+      </c>
+      <c r="E142" s="3" t="n"/>
       <c r="F142" s="3">
-        <f>IF(B142="common", 4, IF(B142="uncommon", 3, IF(B142="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B142="common", 4, IF(B142="uncommon", 3, IF(B142="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4018,18 +4023,18 @@
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C143" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D143" s="3" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E143" s="3" t="inlineStr"/>
+        <v>2.04</v>
+      </c>
+      <c r="E143" s="3" t="n"/>
       <c r="F143" s="3">
-        <f>IF(B143="common", 4, IF(B143="uncommon", 3, IF(B143="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B143="common", 4, IF(B143="uncommon", 3, IF(B143="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4041,7 +4046,7 @@
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C144" s="3" t="n">
@@ -4050,9 +4055,9 @@
       <c r="D144" s="3" t="n">
         <v>301.89</v>
       </c>
-      <c r="E144" s="3" t="inlineStr"/>
+      <c r="E144" s="3" t="n"/>
       <c r="F144" s="3">
-        <f>IF(B144="common", 4, IF(B144="uncommon", 3, IF(B144="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B144="common", 4, IF(B144="uncommon", 3, IF(B144="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4064,20 +4069,20 @@
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C145" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D145" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E145" s="3" t="n">
         <v>0.14</v>
       </c>
       <c r="F145" s="3">
-        <f>IF(B145="common", 4, IF(B145="uncommon", 3, IF(B145="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B145="common", 4, IF(B145="uncommon", 3, IF(B145="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4089,18 +4094,18 @@
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C146" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D146" s="3" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="E146" s="3" t="inlineStr"/>
+        <v>0.79</v>
+      </c>
+      <c r="E146" s="3" t="n"/>
       <c r="F146" s="3">
-        <f>IF(B146="common", 4, IF(B146="uncommon", 3, IF(B146="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B146="common", 4, IF(B146="uncommon", 3, IF(B146="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4112,7 +4117,7 @@
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C147" s="3" t="n">
@@ -4125,7 +4130,7 @@
         <v>0.08</v>
       </c>
       <c r="F147" s="3">
-        <f>IF(B147="common", 4, IF(B147="uncommon", 3, IF(B147="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B147="common", 4, IF(B147="uncommon", 3, IF(B147="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4137,18 +4142,18 @@
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C148" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D148" s="3" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="E148" s="3" t="inlineStr"/>
+        <v>4.16</v>
+      </c>
+      <c r="E148" s="3" t="n"/>
       <c r="F148" s="3">
-        <f>IF(B148="common", 4, IF(B148="uncommon", 3, IF(B148="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B148="common", 4, IF(B148="uncommon", 3, IF(B148="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4160,18 +4165,18 @@
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C149" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D149" s="3" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E149" s="3" t="inlineStr"/>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E149" s="3" t="n"/>
       <c r="F149" s="3">
-        <f>IF(B149="common", 4, IF(B149="uncommon", 3, IF(B149="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B149="common", 4, IF(B149="uncommon", 3, IF(B149="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4183,7 +4188,7 @@
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C150" s="3" t="n">
@@ -4196,7 +4201,7 @@
         <v>0.15</v>
       </c>
       <c r="F150" s="3">
-        <f>IF(B150="common", 4, IF(B150="uncommon", 3, IF(B150="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B150="common", 4, IF(B150="uncommon", 3, IF(B150="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4208,18 +4213,18 @@
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C151" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D151" s="3" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="E151" s="3" t="inlineStr"/>
+        <v>6.94</v>
+      </c>
+      <c r="E151" s="3" t="n"/>
       <c r="F151" s="3">
-        <f>IF(B151="common", 4, IF(B151="uncommon", 3, IF(B151="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B151="common", 4, IF(B151="uncommon", 3, IF(B151="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4231,7 +4236,7 @@
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C152" s="3" t="n">
@@ -4240,9 +4245,9 @@
       <c r="D152" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="E152" s="3" t="inlineStr"/>
+      <c r="E152" s="3" t="n"/>
       <c r="F152" s="3">
-        <f>IF(B152="common", 4, IF(B152="uncommon", 3, IF(B152="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B152="common", 4, IF(B152="uncommon", 3, IF(B152="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4254,7 +4259,7 @@
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C153" s="3" t="n">
@@ -4267,7 +4272,7 @@
         <v>0.13</v>
       </c>
       <c r="F153" s="3">
-        <f>IF(B153="common", 4, IF(B153="uncommon", 3, IF(B153="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B153="common", 4, IF(B153="uncommon", 3, IF(B153="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4279,18 +4284,18 @@
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C154" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D154" s="3" t="n">
-        <v>15.32</v>
-      </c>
-      <c r="E154" s="3" t="inlineStr"/>
+        <v>15.04</v>
+      </c>
+      <c r="E154" s="3" t="n"/>
       <c r="F154" s="3">
-        <f>IF(B154="common", 4, IF(B154="uncommon", 3, IF(B154="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B154="common", 4, IF(B154="uncommon", 3, IF(B154="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4302,18 +4307,18 @@
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C155" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D155" s="3" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E155" s="3" t="inlineStr"/>
+        <v>0.46</v>
+      </c>
+      <c r="E155" s="3" t="n"/>
       <c r="F155" s="3">
-        <f>IF(B155="common", 4, IF(B155="uncommon", 3, IF(B155="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B155="common", 4, IF(B155="uncommon", 3, IF(B155="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4325,7 +4330,7 @@
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C156" s="3" t="n">
@@ -4338,7 +4343,7 @@
         <v>0.1</v>
       </c>
       <c r="F156" s="3">
-        <f>IF(B156="common", 4, IF(B156="uncommon", 3, IF(B156="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B156="common", 4, IF(B156="uncommon", 3, IF(B156="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4350,7 +4355,7 @@
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C157" s="3" t="n">
@@ -4359,9 +4364,9 @@
       <c r="D157" s="3" t="n">
         <v>0.35</v>
       </c>
-      <c r="E157" s="3" t="inlineStr"/>
+      <c r="E157" s="3" t="n"/>
       <c r="F157" s="3">
-        <f>IF(B157="common", 4, IF(B157="uncommon", 3, IF(B157="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B157="common", 4, IF(B157="uncommon", 3, IF(B157="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4373,7 +4378,7 @@
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C158" s="3" t="n">
@@ -4383,10 +4388,10 @@
         <v>0.05</v>
       </c>
       <c r="E158" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F158" s="3">
-        <f>IF(B158="common", 4, IF(B158="uncommon", 3, IF(B158="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B158="common", 4, IF(B158="uncommon", 3, IF(B158="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4398,18 +4403,18 @@
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C159" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D159" s="3" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="E159" s="3" t="inlineStr"/>
+        <v>2.82</v>
+      </c>
+      <c r="E159" s="3" t="n"/>
       <c r="F159" s="3">
-        <f>IF(B159="common", 4, IF(B159="uncommon", 3, IF(B159="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B159="common", 4, IF(B159="uncommon", 3, IF(B159="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4421,18 +4426,18 @@
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C160" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D160" s="3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E160" s="3" t="inlineStr"/>
+        <v>0.39</v>
+      </c>
+      <c r="E160" s="3" t="n"/>
       <c r="F160" s="3">
-        <f>IF(B160="common", 4, IF(B160="uncommon", 3, IF(B160="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B160="common", 4, IF(B160="uncommon", 3, IF(B160="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4444,18 +4449,18 @@
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C161" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D161" s="3" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E161" s="3" t="inlineStr"/>
+        <v>0.53</v>
+      </c>
+      <c r="E161" s="3" t="n"/>
       <c r="F161" s="3">
-        <f>IF(B161="common", 4, IF(B161="uncommon", 3, IF(B161="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B161="common", 4, IF(B161="uncommon", 3, IF(B161="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4467,7 +4472,7 @@
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C162" s="3" t="n">
@@ -4476,9 +4481,9 @@
       <c r="D162" s="3" t="n">
         <v>25.45</v>
       </c>
-      <c r="E162" s="3" t="inlineStr"/>
+      <c r="E162" s="3" t="n"/>
       <c r="F162" s="3">
-        <f>IF(B162="common", 4, IF(B162="uncommon", 3, IF(B162="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B162="common", 4, IF(B162="uncommon", 3, IF(B162="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4490,7 +4495,7 @@
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C163" s="3" t="n">
@@ -4500,10 +4505,10 @@
         <v>0.04</v>
       </c>
       <c r="E163" s="3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F163" s="3">
-        <f>IF(B163="common", 4, IF(B163="uncommon", 3, IF(B163="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B163="common", 4, IF(B163="uncommon", 3, IF(B163="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4515,18 +4520,18 @@
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C164" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D164" s="3" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="E164" s="3" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="E164" s="3" t="n"/>
       <c r="F164" s="3">
-        <f>IF(B164="common", 4, IF(B164="uncommon", 3, IF(B164="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B164="common", 4, IF(B164="uncommon", 3, IF(B164="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4538,18 +4543,18 @@
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C165" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D165" s="3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E165" s="3" t="inlineStr"/>
+        <v>0.41</v>
+      </c>
+      <c r="E165" s="3" t="n"/>
       <c r="F165" s="3">
-        <f>IF(B165="common", 4, IF(B165="uncommon", 3, IF(B165="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B165="common", 4, IF(B165="uncommon", 3, IF(B165="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4561,20 +4566,20 @@
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C166" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D166" s="3" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E166" s="3" t="n">
         <v>0.09</v>
       </c>
       <c r="F166" s="3">
-        <f>IF(B166="common", 4, IF(B166="uncommon", 3, IF(B166="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B166="common", 4, IF(B166="uncommon", 3, IF(B166="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4586,18 +4591,18 @@
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C167" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D167" s="3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="E167" s="3" t="inlineStr"/>
+        <v>3.01</v>
+      </c>
+      <c r="E167" s="3" t="n"/>
       <c r="F167" s="3">
-        <f>IF(B167="common", 4, IF(B167="uncommon", 3, IF(B167="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B167="common", 4, IF(B167="uncommon", 3, IF(B167="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4609,7 +4614,7 @@
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C168" s="3" t="n">
@@ -4618,9 +4623,9 @@
       <c r="D168" s="3" t="n">
         <v>0.39</v>
       </c>
-      <c r="E168" s="3" t="inlineStr"/>
+      <c r="E168" s="3" t="n"/>
       <c r="F168" s="3">
-        <f>IF(B168="common", 4, IF(B168="uncommon", 3, IF(B168="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B168="common", 4, IF(B168="uncommon", 3, IF(B168="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4632,7 +4637,7 @@
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C169" s="3" t="n">
@@ -4645,7 +4650,7 @@
         <v>0.15</v>
       </c>
       <c r="F169" s="3">
-        <f>IF(B169="common", 4, IF(B169="uncommon", 3, IF(B169="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B169="common", 4, IF(B169="uncommon", 3, IF(B169="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4657,18 +4662,18 @@
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C170" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D170" s="3" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="E170" s="3" t="inlineStr"/>
+        <v>7.79</v>
+      </c>
+      <c r="E170" s="3" t="n"/>
       <c r="F170" s="3">
-        <f>IF(B170="common", 4, IF(B170="uncommon", 3, IF(B170="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B170="common", 4, IF(B170="uncommon", 3, IF(B170="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4680,18 +4685,18 @@
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C171" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D171" s="3" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E171" s="3" t="inlineStr"/>
+        <v>0.43</v>
+      </c>
+      <c r="E171" s="3" t="n"/>
       <c r="F171" s="3">
-        <f>IF(B171="common", 4, IF(B171="uncommon", 3, IF(B171="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B171="common", 4, IF(B171="uncommon", 3, IF(B171="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4703,7 +4708,7 @@
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C172" s="3" t="n">
@@ -4713,10 +4718,10 @@
         <v>0.1</v>
       </c>
       <c r="E172" s="3" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="F172" s="3">
-        <f>IF(B172="common", 4, IF(B172="uncommon", 3, IF(B172="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B172="common", 4, IF(B172="uncommon", 3, IF(B172="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4728,18 +4733,18 @@
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C173" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D173" s="3" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="E173" s="3" t="inlineStr"/>
+        <v>4.96</v>
+      </c>
+      <c r="E173" s="3" t="n"/>
       <c r="F173" s="3">
-        <f>IF(B173="common", 4, IF(B173="uncommon", 3, IF(B173="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B173="common", 4, IF(B173="uncommon", 3, IF(B173="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4751,18 +4756,18 @@
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C174" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D174" s="3" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E174" s="3" t="inlineStr"/>
+        <v>0.77</v>
+      </c>
+      <c r="E174" s="3" t="n"/>
       <c r="F174" s="3">
-        <f>IF(B174="common", 4, IF(B174="uncommon", 3, IF(B174="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B174="common", 4, IF(B174="uncommon", 3, IF(B174="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4774,7 +4779,7 @@
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C175" s="3" t="n">
@@ -4787,7 +4792,7 @@
         <v>0.15</v>
       </c>
       <c r="F175" s="3">
-        <f>IF(B175="common", 4, IF(B175="uncommon", 3, IF(B175="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B175="common", 4, IF(B175="uncommon", 3, IF(B175="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4799,18 +4804,18 @@
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C176" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D176" s="3" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="E176" s="3" t="inlineStr"/>
+        <v>14.94</v>
+      </c>
+      <c r="E176" s="3" t="n"/>
       <c r="F176" s="3">
-        <f>IF(B176="common", 4, IF(B176="uncommon", 3, IF(B176="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B176="common", 4, IF(B176="uncommon", 3, IF(B176="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4822,18 +4827,18 @@
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C177" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D177" s="3" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E177" s="3" t="inlineStr"/>
+        <v>0.61</v>
+      </c>
+      <c r="E177" s="3" t="n"/>
       <c r="F177" s="3">
-        <f>IF(B177="common", 4, IF(B177="uncommon", 3, IF(B177="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B177="common", 4, IF(B177="uncommon", 3, IF(B177="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4845,7 +4850,7 @@
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C178" s="3" t="n">
@@ -4858,7 +4863,7 @@
         <v>0.1</v>
       </c>
       <c r="F178" s="3">
-        <f>IF(B178="common", 4, IF(B178="uncommon", 3, IF(B178="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B178="common", 4, IF(B178="uncommon", 3, IF(B178="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4870,18 +4875,18 @@
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C179" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D179" s="3" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="E179" s="3" t="inlineStr"/>
+        <v>3.56</v>
+      </c>
+      <c r="E179" s="3" t="n"/>
       <c r="F179" s="3">
-        <f>IF(B179="common", 4, IF(B179="uncommon", 3, IF(B179="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B179="common", 4, IF(B179="uncommon", 3, IF(B179="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4893,18 +4898,18 @@
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C180" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D180" s="3" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E180" s="3" t="inlineStr"/>
+        <v>0.53</v>
+      </c>
+      <c r="E180" s="3" t="n"/>
       <c r="F180" s="3">
-        <f>IF(B180="common", 4, IF(B180="uncommon", 3, IF(B180="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B180="common", 4, IF(B180="uncommon", 3, IF(B180="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4916,7 +4921,7 @@
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C181" s="3" t="n">
@@ -4925,9 +4930,9 @@
       <c r="D181" s="3" t="n">
         <v>0.64</v>
       </c>
-      <c r="E181" s="3" t="inlineStr"/>
+      <c r="E181" s="3" t="n"/>
       <c r="F181" s="3">
-        <f>IF(B181="common", 4, IF(B181="uncommon", 3, IF(B181="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B181="common", 4, IF(B181="uncommon", 3, IF(B181="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4939,7 +4944,7 @@
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C182" s="3" t="n">
@@ -4952,7 +4957,7 @@
         <v>0.09</v>
       </c>
       <c r="F182" s="3">
-        <f>IF(B182="common", 4, IF(B182="uncommon", 3, IF(B182="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B182="common", 4, IF(B182="uncommon", 3, IF(B182="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4964,18 +4969,18 @@
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C183" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D183" s="3" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="E183" s="3" t="inlineStr"/>
+        <v>8.039999999999999</v>
+      </c>
+      <c r="E183" s="3" t="n"/>
       <c r="F183" s="3">
-        <f>IF(B183="common", 4, IF(B183="uncommon", 3, IF(B183="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B183="common", 4, IF(B183="uncommon", 3, IF(B183="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4987,18 +4992,18 @@
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C184" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D184" s="3" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E184" s="3" t="inlineStr"/>
+        <v>0.36</v>
+      </c>
+      <c r="E184" s="3" t="n"/>
       <c r="F184" s="3">
-        <f>IF(B184="common", 4, IF(B184="uncommon", 3, IF(B184="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B184="common", 4, IF(B184="uncommon", 3, IF(B184="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5010,18 +5015,18 @@
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C185" s="3" t="n">
         <v>1440</v>
       </c>
       <c r="D185" s="3" t="n">
-        <v>73.31</v>
-      </c>
-      <c r="E185" s="3" t="inlineStr"/>
+        <v>72.34999999999999</v>
+      </c>
+      <c r="E185" s="3" t="n"/>
       <c r="F185" s="3">
-        <f>IF(B185="common", 4, IF(B185="uncommon", 3, IF(B185="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B185="common", 4, IF(B185="uncommon", 3, IF(B185="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5033,18 +5038,18 @@
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C186" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D186" s="3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E186" s="3" t="inlineStr"/>
+        <v>1.14</v>
+      </c>
+      <c r="E186" s="3" t="n"/>
       <c r="F186" s="3">
-        <f>IF(B186="common", 4, IF(B186="uncommon", 3, IF(B186="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B186="common", 4, IF(B186="uncommon", 3, IF(B186="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5056,18 +5061,18 @@
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C187" s="3" t="n">
         <v>1440</v>
       </c>
       <c r="D187" s="3" t="n">
-        <v>54.65</v>
-      </c>
-      <c r="E187" s="3" t="inlineStr"/>
+        <v>54.27</v>
+      </c>
+      <c r="E187" s="3" t="n"/>
       <c r="F187" s="3">
-        <f>IF(B187="common", 4, IF(B187="uncommon", 3, IF(B187="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B187="common", 4, IF(B187="uncommon", 3, IF(B187="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5079,18 +5084,18 @@
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>Hyper Rare</t>
+          <t>hyper rare</t>
         </is>
       </c>
       <c r="C188" s="3" t="n">
         <v>900</v>
       </c>
       <c r="D188" s="3" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="E188" s="3" t="inlineStr"/>
+        <v>8.81</v>
+      </c>
+      <c r="E188" s="3" t="n"/>
       <c r="F188" s="3">
-        <f>IF(B188="common", 4, IF(B188="uncommon", 3, IF(B188="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B188="common", 4, IF(B188="uncommon", 3, IF(B188="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5102,18 +5107,18 @@
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C189" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D189" s="3" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E189" s="3" t="inlineStr"/>
+        <v>0.43</v>
+      </c>
+      <c r="E189" s="3" t="n"/>
       <c r="F189" s="3">
-        <f>IF(B189="common", 4, IF(B189="uncommon", 3, IF(B189="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B189="common", 4, IF(B189="uncommon", 3, IF(B189="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5125,18 +5130,18 @@
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C190" s="3" t="n">
         <v>1440</v>
       </c>
       <c r="D190" s="3" t="n">
-        <v>70.06</v>
-      </c>
-      <c r="E190" s="3" t="inlineStr"/>
+        <v>69.65000000000001</v>
+      </c>
+      <c r="E190" s="3" t="n"/>
       <c r="F190" s="3">
-        <f>IF(B190="common", 4, IF(B190="uncommon", 3, IF(B190="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B190="common", 4, IF(B190="uncommon", 3, IF(B190="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5148,7 +5153,7 @@
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C191" s="3" t="n">
@@ -5161,7 +5166,7 @@
         <v>0.13</v>
       </c>
       <c r="F191" s="3">
-        <f>IF(B191="common", 4, IF(B191="uncommon", 3, IF(B191="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B191="common", 4, IF(B191="uncommon", 3, IF(B191="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5173,7 +5178,7 @@
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C192" s="3" t="n">
@@ -5182,9 +5187,9 @@
       <c r="D192" s="3" t="n">
         <v>0.37</v>
       </c>
-      <c r="E192" s="3" t="inlineStr"/>
+      <c r="E192" s="3" t="n"/>
       <c r="F192" s="3">
-        <f>IF(B192="common", 4, IF(B192="uncommon", 3, IF(B192="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B192="common", 4, IF(B192="uncommon", 3, IF(B192="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5196,18 +5201,18 @@
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C193" s="3" t="n">
         <v>1440</v>
       </c>
       <c r="D193" s="3" t="n">
-        <v>43.06</v>
-      </c>
-      <c r="E193" s="3" t="inlineStr"/>
+        <v>42.84</v>
+      </c>
+      <c r="E193" s="3" t="n"/>
       <c r="F193" s="3">
-        <f>IF(B193="common", 4, IF(B193="uncommon", 3, IF(B193="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B193="common", 4, IF(B193="uncommon", 3, IF(B193="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5219,20 +5224,20 @@
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C194" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D194" s="3" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E194" s="3" t="n">
         <v>0.25</v>
       </c>
       <c r="F194" s="3">
-        <f>IF(B194="common", 4, IF(B194="uncommon", 3, IF(B194="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B194="common", 4, IF(B194="uncommon", 3, IF(B194="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5244,18 +5249,18 @@
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C195" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D195" s="3" t="n">
-        <v>34.92</v>
-      </c>
-      <c r="E195" s="3" t="inlineStr"/>
+        <v>34.84</v>
+      </c>
+      <c r="E195" s="3" t="n"/>
       <c r="F195" s="3">
-        <f>IF(B195="common", 4, IF(B195="uncommon", 3, IF(B195="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B195="common", 4, IF(B195="uncommon", 3, IF(B195="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5267,18 +5272,18 @@
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C196" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D196" s="3" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="E196" s="3" t="inlineStr"/>
+        <v>1.69</v>
+      </c>
+      <c r="E196" s="3" t="n"/>
       <c r="F196" s="3">
-        <f>IF(B196="common", 4, IF(B196="uncommon", 3, IF(B196="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B196="common", 4, IF(B196="uncommon", 3, IF(B196="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5290,20 +5295,20 @@
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C197" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D197" s="3" t="n">
-        <v>2.11</v>
+        <v>2.65</v>
       </c>
       <c r="E197" s="3" t="n">
         <v>7.48</v>
       </c>
       <c r="F197" s="3">
-        <f>IF(B197="common", 4, IF(B197="uncommon", 3, IF(B197="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B197="common", 4, IF(B197="uncommon", 3, IF(B197="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5315,7 +5320,7 @@
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C198" s="3" t="n">
@@ -5324,9 +5329,9 @@
       <c r="D198" s="3" t="n">
         <v>325.72</v>
       </c>
-      <c r="E198" s="3" t="inlineStr"/>
+      <c r="E198" s="3" t="n"/>
       <c r="F198" s="3">
-        <f>IF(B198="common", 4, IF(B198="uncommon", 3, IF(B198="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B198="common", 4, IF(B198="uncommon", 3, IF(B198="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5338,20 +5343,20 @@
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C199" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D199" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E199" s="3" t="n">
         <v>0.14</v>
       </c>
       <c r="F199" s="3">
-        <f>IF(B199="common", 4, IF(B199="uncommon", 3, IF(B199="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B199="common", 4, IF(B199="uncommon", 3, IF(B199="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5363,18 +5368,18 @@
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C200" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D200" s="3" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E200" s="3" t="inlineStr"/>
+        <v>0.44</v>
+      </c>
+      <c r="E200" s="3" t="n"/>
       <c r="F200" s="3">
-        <f>IF(B200="common", 4, IF(B200="uncommon", 3, IF(B200="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B200="common", 4, IF(B200="uncommon", 3, IF(B200="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5386,18 +5391,18 @@
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C201" s="3" t="n">
         <v>1440</v>
       </c>
       <c r="D201" s="3" t="n">
-        <v>42.57</v>
-      </c>
-      <c r="E201" s="3" t="inlineStr"/>
+        <v>42.61</v>
+      </c>
+      <c r="E201" s="3" t="n"/>
       <c r="F201" s="3">
-        <f>IF(B201="common", 4, IF(B201="uncommon", 3, IF(B201="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B201="common", 4, IF(B201="uncommon", 3, IF(B201="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5409,7 +5414,7 @@
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C202" s="3" t="n">
@@ -5422,7 +5427,7 @@
         <v>0.12</v>
       </c>
       <c r="F202" s="3">
-        <f>IF(B202="common", 4, IF(B202="uncommon", 3, IF(B202="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B202="common", 4, IF(B202="uncommon", 3, IF(B202="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5434,18 +5439,18 @@
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C203" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D203" s="3" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E203" s="3" t="inlineStr"/>
+        <v>0.43</v>
+      </c>
+      <c r="E203" s="3" t="n"/>
       <c r="F203" s="3">
-        <f>IF(B203="common", 4, IF(B203="uncommon", 3, IF(B203="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B203="common", 4, IF(B203="uncommon", 3, IF(B203="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5457,7 +5462,7 @@
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C204" s="3" t="n">
@@ -5466,9 +5471,9 @@
       <c r="D204" s="3" t="n">
         <v>50.55</v>
       </c>
-      <c r="E204" s="3" t="inlineStr"/>
+      <c r="E204" s="3" t="n"/>
       <c r="F204" s="3">
-        <f>IF(B204="common", 4, IF(B204="uncommon", 3, IF(B204="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B204="common", 4, IF(B204="uncommon", 3, IF(B204="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5480,7 +5485,7 @@
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C205" s="3" t="n">
@@ -5493,7 +5498,7 @@
         <v>0.12</v>
       </c>
       <c r="F205" s="3">
-        <f>IF(B205="common", 4, IF(B205="uncommon", 3, IF(B205="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B205="common", 4, IF(B205="uncommon", 3, IF(B205="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5505,18 +5510,18 @@
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C206" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D206" s="3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E206" s="3" t="inlineStr"/>
+        <v>0.41</v>
+      </c>
+      <c r="E206" s="3" t="n"/>
       <c r="F206" s="3">
-        <f>IF(B206="common", 4, IF(B206="uncommon", 3, IF(B206="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B206="common", 4, IF(B206="uncommon", 3, IF(B206="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5528,18 +5533,18 @@
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C207" s="3" t="n">
         <v>161</v>
       </c>
       <c r="D207" s="3" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="E207" s="3" t="inlineStr"/>
+        <v>0.9</v>
+      </c>
+      <c r="E207" s="3" t="n"/>
       <c r="F207" s="3">
-        <f>IF(B207="common", 4, IF(B207="uncommon", 3, IF(B207="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B207="common", 4, IF(B207="uncommon", 3, IF(B207="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5551,7 +5556,7 @@
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C208" s="3" t="n">
@@ -5561,10 +5566,10 @@
         <v>0.04</v>
       </c>
       <c r="E208" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F208" s="3">
-        <f>IF(B208="common", 4, IF(B208="uncommon", 3, IF(B208="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B208="common", 4, IF(B208="uncommon", 3, IF(B208="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5576,18 +5581,18 @@
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C209" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D209" s="3" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="E209" s="3" t="inlineStr"/>
+        <v>4.22</v>
+      </c>
+      <c r="E209" s="3" t="n"/>
       <c r="F209" s="3">
-        <f>IF(B209="common", 4, IF(B209="uncommon", 3, IF(B209="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B209="common", 4, IF(B209="uncommon", 3, IF(B209="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5599,18 +5604,18 @@
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C210" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D210" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E210" s="3" t="inlineStr"/>
+        <v>0.62</v>
+      </c>
+      <c r="E210" s="3" t="n"/>
       <c r="F210" s="3">
-        <f>IF(B210="common", 4, IF(B210="uncommon", 3, IF(B210="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B210="common", 4, IF(B210="uncommon", 3, IF(B210="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5622,20 +5627,20 @@
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C211" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D211" s="3" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="E211" s="3" t="n">
         <v>0.27</v>
       </c>
       <c r="F211" s="3">
-        <f>IF(B211="common", 4, IF(B211="uncommon", 3, IF(B211="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B211="common", 4, IF(B211="uncommon", 3, IF(B211="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5647,18 +5652,18 @@
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C212" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D212" s="3" t="n">
-        <v>36.17</v>
-      </c>
-      <c r="E212" s="3" t="inlineStr"/>
+        <v>36.06</v>
+      </c>
+      <c r="E212" s="3" t="n"/>
       <c r="F212" s="3">
-        <f>IF(B212="common", 4, IF(B212="uncommon", 3, IF(B212="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B212="common", 4, IF(B212="uncommon", 3, IF(B212="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5670,18 +5675,18 @@
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C213" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D213" s="3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E213" s="3" t="inlineStr"/>
+        <v>1.94</v>
+      </c>
+      <c r="E213" s="3" t="n"/>
       <c r="F213" s="3">
-        <f>IF(B213="common", 4, IF(B213="uncommon", 3, IF(B213="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B213="common", 4, IF(B213="uncommon", 3, IF(B213="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5693,18 +5698,18 @@
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C214" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D214" s="3" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="E214" s="3" t="inlineStr"/>
+        <v>3.7</v>
+      </c>
+      <c r="E214" s="3" t="n"/>
       <c r="F214" s="3">
-        <f>IF(B214="common", 4, IF(B214="uncommon", 3, IF(B214="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B214="common", 4, IF(B214="uncommon", 3, IF(B214="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5716,18 +5721,18 @@
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C215" s="3" t="n">
         <v>1440</v>
       </c>
       <c r="D215" s="3" t="n">
-        <v>389.94</v>
-      </c>
-      <c r="E215" s="3" t="inlineStr"/>
+        <v>388.94</v>
+      </c>
+      <c r="E215" s="3" t="n"/>
       <c r="F215" s="3">
-        <f>IF(B215="common", 4, IF(B215="uncommon", 3, IF(B215="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B215="common", 4, IF(B215="uncommon", 3, IF(B215="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5739,7 +5744,7 @@
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C216" s="3" t="n">
@@ -5752,7 +5757,7 @@
         <v>0.1</v>
       </c>
       <c r="F216" s="3">
-        <f>IF(B216="common", 4, IF(B216="uncommon", 3, IF(B216="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B216="common", 4, IF(B216="uncommon", 3, IF(B216="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5764,18 +5769,18 @@
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C217" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D217" s="3" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E217" s="3" t="inlineStr"/>
+        <v>2.54</v>
+      </c>
+      <c r="E217" s="3" t="n"/>
       <c r="F217" s="3">
-        <f>IF(B217="common", 4, IF(B217="uncommon", 3, IF(B217="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B217="common", 4, IF(B217="uncommon", 3, IF(B217="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5787,7 +5792,7 @@
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C218" s="3" t="n">
@@ -5796,9 +5801,9 @@
       <c r="D218" s="3" t="n">
         <v>0.46</v>
       </c>
-      <c r="E218" s="3" t="inlineStr"/>
+      <c r="E218" s="3" t="n"/>
       <c r="F218" s="3">
-        <f>IF(B218="common", 4, IF(B218="uncommon", 3, IF(B218="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B218="common", 4, IF(B218="uncommon", 3, IF(B218="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5810,20 +5815,20 @@
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C219" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D219" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E219" s="3" t="n">
         <v>0.14</v>
       </c>
       <c r="F219" s="3">
-        <f>IF(B219="common", 4, IF(B219="uncommon", 3, IF(B219="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B219="common", 4, IF(B219="uncommon", 3, IF(B219="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5835,18 +5840,18 @@
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C220" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D220" s="3" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="E220" s="3" t="inlineStr"/>
+        <v>10.18</v>
+      </c>
+      <c r="E220" s="3" t="n"/>
       <c r="F220" s="3">
-        <f>IF(B220="common", 4, IF(B220="uncommon", 3, IF(B220="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B220="common", 4, IF(B220="uncommon", 3, IF(B220="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5858,7 +5863,7 @@
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C221" s="3" t="n">
@@ -5867,9 +5872,9 @@
       <c r="D221" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="E221" s="3" t="inlineStr"/>
+      <c r="E221" s="3" t="n"/>
       <c r="F221" s="3">
-        <f>IF(B221="common", 4, IF(B221="uncommon", 3, IF(B221="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B221="common", 4, IF(B221="uncommon", 3, IF(B221="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5881,18 +5886,18 @@
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C222" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D222" s="3" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E222" s="3" t="inlineStr"/>
+        <v>0.55</v>
+      </c>
+      <c r="E222" s="3" t="n"/>
       <c r="F222" s="3">
-        <f>IF(B222="common", 4, IF(B222="uncommon", 3, IF(B222="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B222="common", 4, IF(B222="uncommon", 3, IF(B222="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5904,18 +5909,18 @@
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C223" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D223" s="3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="E223" s="3" t="inlineStr"/>
+        <v>1.04</v>
+      </c>
+      <c r="E223" s="3" t="n"/>
       <c r="F223" s="3">
-        <f>IF(B223="common", 4, IF(B223="uncommon", 3, IF(B223="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B223="common", 4, IF(B223="uncommon", 3, IF(B223="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5927,18 +5932,18 @@
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>ACE SPEC Rare</t>
+          <t>ace spec rare</t>
         </is>
       </c>
       <c r="C224" s="3" t="n">
         <v>128</v>
       </c>
       <c r="D224" s="3" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="E224" s="3" t="inlineStr"/>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E224" s="3" t="n"/>
       <c r="F224" s="3">
-        <f>IF(B224="common", 4, IF(B224="uncommon", 3, IF(B224="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B224="common", 4, IF(B224="uncommon", 3, IF(B224="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5950,18 +5955,18 @@
       </c>
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t>ACE SPEC Rare</t>
+          <t>ace spec rare</t>
         </is>
       </c>
       <c r="C225" s="3" t="n">
         <v>128</v>
       </c>
       <c r="D225" s="3" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E225" s="3" t="inlineStr"/>
+        <v>0.44</v>
+      </c>
+      <c r="E225" s="3" t="n"/>
       <c r="F225" s="3">
-        <f>IF(B225="common", 4, IF(B225="uncommon", 3, IF(B225="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B225="common", 4, IF(B225="uncommon", 3, IF(B225="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5973,18 +5978,18 @@
       </c>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C226" s="3" t="n">
         <v>161</v>
       </c>
       <c r="D226" s="3" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="E226" s="3" t="inlineStr"/>
+        <v>1.3</v>
+      </c>
+      <c r="E226" s="3" t="n"/>
       <c r="F226" s="3">
-        <f>IF(B226="common", 4, IF(B226="uncommon", 3, IF(B226="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B226="common", 4, IF(B226="uncommon", 3, IF(B226="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5996,7 +6001,7 @@
       </c>
       <c r="B227" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C227" s="3" t="n">
@@ -6009,7 +6014,7 @@
         <v>0.14</v>
       </c>
       <c r="F227" s="3">
-        <f>IF(B227="common", 4, IF(B227="uncommon", 3, IF(B227="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B227="common", 4, IF(B227="uncommon", 3, IF(B227="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6021,18 +6026,18 @@
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C228" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D228" s="3" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="E228" s="3" t="inlineStr"/>
+        <v>3.27</v>
+      </c>
+      <c r="E228" s="3" t="n"/>
       <c r="F228" s="3">
-        <f>IF(B228="common", 4, IF(B228="uncommon", 3, IF(B228="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B228="common", 4, IF(B228="uncommon", 3, IF(B228="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6044,18 +6049,18 @@
       </c>
       <c r="B229" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C229" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D229" s="3" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E229" s="3" t="inlineStr"/>
+        <v>0.48</v>
+      </c>
+      <c r="E229" s="3" t="n"/>
       <c r="F229" s="3">
-        <f>IF(B229="common", 4, IF(B229="uncommon", 3, IF(B229="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B229="common", 4, IF(B229="uncommon", 3, IF(B229="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6067,20 +6072,20 @@
       </c>
       <c r="B230" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C230" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D230" s="3" t="n">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="E230" s="3" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="F230" s="3">
-        <f>IF(B230="common", 4, IF(B230="uncommon", 3, IF(B230="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B230="common", 4, IF(B230="uncommon", 3, IF(B230="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6092,18 +6097,18 @@
       </c>
       <c r="B231" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C231" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D231" s="3" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="E231" s="3" t="inlineStr"/>
+        <v>13.17</v>
+      </c>
+      <c r="E231" s="3" t="n"/>
       <c r="F231" s="3">
-        <f>IF(B231="common", 4, IF(B231="uncommon", 3, IF(B231="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B231="common", 4, IF(B231="uncommon", 3, IF(B231="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6115,18 +6120,18 @@
       </c>
       <c r="B232" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C232" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D232" s="3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E232" s="3" t="inlineStr"/>
+        <v>1.86</v>
+      </c>
+      <c r="E232" s="3" t="n"/>
       <c r="F232" s="3">
-        <f>IF(B232="common", 4, IF(B232="uncommon", 3, IF(B232="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B232="common", 4, IF(B232="uncommon", 3, IF(B232="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6138,20 +6143,20 @@
       </c>
       <c r="B233" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C233" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D233" s="3" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="E233" s="3" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="F233" s="3">
-        <f>IF(B233="common", 4, IF(B233="uncommon", 3, IF(B233="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B233="common", 4, IF(B233="uncommon", 3, IF(B233="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6163,18 +6168,18 @@
       </c>
       <c r="B234" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C234" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D234" s="3" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="E234" s="3" t="inlineStr"/>
+        <v>10.44</v>
+      </c>
+      <c r="E234" s="3" t="n"/>
       <c r="F234" s="3">
-        <f>IF(B234="common", 4, IF(B234="uncommon", 3, IF(B234="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B234="common", 4, IF(B234="uncommon", 3, IF(B234="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6186,18 +6191,18 @@
       </c>
       <c r="B235" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C235" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D235" s="3" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E235" s="3" t="inlineStr"/>
+        <v>0.8</v>
+      </c>
+      <c r="E235" s="3" t="n"/>
       <c r="F235" s="3">
-        <f>IF(B235="common", 4, IF(B235="uncommon", 3, IF(B235="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B235="common", 4, IF(B235="uncommon", 3, IF(B235="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6209,7 +6214,7 @@
       </c>
       <c r="B236" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C236" s="3" t="n">
@@ -6222,7 +6227,7 @@
         <v>0.11</v>
       </c>
       <c r="F236" s="3">
-        <f>IF(B236="common", 4, IF(B236="uncommon", 3, IF(B236="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B236="common", 4, IF(B236="uncommon", 3, IF(B236="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6234,18 +6239,18 @@
       </c>
       <c r="B237" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C237" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D237" s="3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E237" s="3" t="inlineStr"/>
+        <v>2.72</v>
+      </c>
+      <c r="E237" s="3" t="n"/>
       <c r="F237" s="3">
-        <f>IF(B237="common", 4, IF(B237="uncommon", 3, IF(B237="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B237="common", 4, IF(B237="uncommon", 3, IF(B237="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6257,18 +6262,18 @@
       </c>
       <c r="B238" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C238" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D238" s="3" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E238" s="3" t="inlineStr"/>
+        <v>0.46</v>
+      </c>
+      <c r="E238" s="3" t="n"/>
       <c r="F238" s="3">
-        <f>IF(B238="common", 4, IF(B238="uncommon", 3, IF(B238="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B238="common", 4, IF(B238="uncommon", 3, IF(B238="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6280,18 +6285,18 @@
       </c>
       <c r="B239" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C239" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D239" s="3" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E239" s="3" t="inlineStr"/>
+        <v>0.54</v>
+      </c>
+      <c r="E239" s="3" t="n"/>
       <c r="F239" s="3">
-        <f>IF(B239="common", 4, IF(B239="uncommon", 3, IF(B239="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B239="common", 4, IF(B239="uncommon", 3, IF(B239="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6303,20 +6308,20 @@
       </c>
       <c r="B240" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C240" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D240" s="3" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E240" s="3" t="n">
         <v>0.11</v>
       </c>
       <c r="F240" s="3">
-        <f>IF(B240="common", 4, IF(B240="uncommon", 3, IF(B240="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B240="common", 4, IF(B240="uncommon", 3, IF(B240="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6328,18 +6333,18 @@
       </c>
       <c r="B241" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C241" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D241" s="3" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E241" s="3" t="inlineStr"/>
+        <v>0.36</v>
+      </c>
+      <c r="E241" s="3" t="n"/>
       <c r="F241" s="3">
-        <f>IF(B241="common", 4, IF(B241="uncommon", 3, IF(B241="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B241="common", 4, IF(B241="uncommon", 3, IF(B241="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6351,20 +6356,20 @@
       </c>
       <c r="B242" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C242" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D242" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E242" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F242" s="3">
-        <f>IF(B242="common", 4, IF(B242="uncommon", 3, IF(B242="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B242="common", 4, IF(B242="uncommon", 3, IF(B242="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6376,18 +6381,18 @@
       </c>
       <c r="B243" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C243" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D243" s="3" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="E243" s="3" t="inlineStr"/>
+        <v>6.79</v>
+      </c>
+      <c r="E243" s="3" t="n"/>
       <c r="F243" s="3">
-        <f>IF(B243="common", 4, IF(B243="uncommon", 3, IF(B243="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B243="common", 4, IF(B243="uncommon", 3, IF(B243="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6399,18 +6404,18 @@
       </c>
       <c r="B244" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C244" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D244" s="3" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E244" s="3" t="inlineStr"/>
+        <v>0.39</v>
+      </c>
+      <c r="E244" s="3" t="n"/>
       <c r="F244" s="3">
-        <f>IF(B244="common", 4, IF(B244="uncommon", 3, IF(B244="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B244="common", 4, IF(B244="uncommon", 3, IF(B244="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6422,18 +6427,18 @@
       </c>
       <c r="B245" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C245" s="3" t="n">
         <v>161</v>
       </c>
       <c r="D245" s="3" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E245" s="3" t="inlineStr"/>
+        <v>0.66</v>
+      </c>
+      <c r="E245" s="3" t="n"/>
       <c r="F245" s="3">
-        <f>IF(B245="common", 4, IF(B245="uncommon", 3, IF(B245="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B245="common", 4, IF(B245="uncommon", 3, IF(B245="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6445,18 +6450,18 @@
       </c>
       <c r="B246" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C246" s="3" t="n">
         <v>1440</v>
       </c>
       <c r="D246" s="3" t="n">
-        <v>76.95999999999999</v>
-      </c>
-      <c r="E246" s="3" t="inlineStr"/>
+        <v>76.22</v>
+      </c>
+      <c r="E246" s="3" t="n"/>
       <c r="F246" s="3">
-        <f>IF(B246="common", 4, IF(B246="uncommon", 3, IF(B246="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B246="common", 4, IF(B246="uncommon", 3, IF(B246="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6468,18 +6473,18 @@
       </c>
       <c r="B247" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C247" s="3" t="n">
         <v>1440</v>
       </c>
       <c r="D247" s="3" t="n">
-        <v>43.48</v>
-      </c>
-      <c r="E247" s="3" t="inlineStr"/>
+        <v>43.4</v>
+      </c>
+      <c r="E247" s="3" t="n"/>
       <c r="F247" s="3">
-        <f>IF(B247="common", 4, IF(B247="uncommon", 3, IF(B247="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B247="common", 4, IF(B247="uncommon", 3, IF(B247="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6491,18 +6496,18 @@
       </c>
       <c r="B248" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C248" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D248" s="3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E248" s="3" t="inlineStr"/>
+        <v>0.92</v>
+      </c>
+      <c r="E248" s="3" t="n"/>
       <c r="F248" s="3">
-        <f>IF(B248="common", 4, IF(B248="uncommon", 3, IF(B248="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B248="common", 4, IF(B248="uncommon", 3, IF(B248="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6514,18 +6519,18 @@
       </c>
       <c r="B249" s="3" t="inlineStr">
         <is>
-          <t>Hyper Rare</t>
+          <t>hyper rare</t>
         </is>
       </c>
       <c r="C249" s="3" t="n">
         <v>900</v>
       </c>
       <c r="D249" s="3" t="n">
-        <v>53.87</v>
-      </c>
-      <c r="E249" s="3" t="inlineStr"/>
+        <v>53.49</v>
+      </c>
+      <c r="E249" s="3" t="n"/>
       <c r="F249" s="3">
-        <f>IF(B249="common", 4, IF(B249="uncommon", 3, IF(B249="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B249="common", 4, IF(B249="uncommon", 3, IF(B249="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6537,7 +6542,7 @@
       </c>
       <c r="B250" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C250" s="3" t="n">
@@ -6550,7 +6555,7 @@
         <v>0.1</v>
       </c>
       <c r="F250" s="3">
-        <f>IF(B250="common", 4, IF(B250="uncommon", 3, IF(B250="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B250="common", 4, IF(B250="uncommon", 3, IF(B250="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6562,18 +6567,18 @@
       </c>
       <c r="B251" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C251" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D251" s="3" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="E251" s="3" t="inlineStr"/>
+        <v>3.43</v>
+      </c>
+      <c r="E251" s="3" t="n"/>
       <c r="F251" s="3">
-        <f>IF(B251="common", 4, IF(B251="uncommon", 3, IF(B251="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B251="common", 4, IF(B251="uncommon", 3, IF(B251="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6585,7 +6590,7 @@
       </c>
       <c r="B252" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C252" s="3" t="n">
@@ -6594,9 +6599,9 @@
       <c r="D252" s="3" t="n">
         <v>0.44</v>
       </c>
-      <c r="E252" s="3" t="inlineStr"/>
+      <c r="E252" s="3" t="n"/>
       <c r="F252" s="3">
-        <f>IF(B252="common", 4, IF(B252="uncommon", 3, IF(B252="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B252="common", 4, IF(B252="uncommon", 3, IF(B252="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6608,18 +6613,18 @@
       </c>
       <c r="B253" s="3" t="inlineStr">
         <is>
-          <t>ACE SPEC Rare</t>
+          <t>ace spec rare</t>
         </is>
       </c>
       <c r="C253" s="3" t="n">
         <v>128</v>
       </c>
       <c r="D253" s="3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="E253" s="3" t="inlineStr"/>
+        <v>1.39</v>
+      </c>
+      <c r="E253" s="3" t="n"/>
       <c r="F253" s="3">
-        <f>IF(B253="common", 4, IF(B253="uncommon", 3, IF(B253="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B253="common", 4, IF(B253="uncommon", 3, IF(B253="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6631,20 +6636,20 @@
       </c>
       <c r="B254" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C254" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D254" s="3" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E254" s="3" t="n">
         <v>0.23</v>
       </c>
       <c r="F254" s="3">
-        <f>IF(B254="common", 4, IF(B254="uncommon", 3, IF(B254="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B254="common", 4, IF(B254="uncommon", 3, IF(B254="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6656,18 +6661,18 @@
       </c>
       <c r="B255" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C255" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D255" s="3" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E255" s="3" t="inlineStr"/>
+        <v>0.52</v>
+      </c>
+      <c r="E255" s="3" t="n"/>
       <c r="F255" s="3">
-        <f>IF(B255="common", 4, IF(B255="uncommon", 3, IF(B255="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B255="common", 4, IF(B255="uncommon", 3, IF(B255="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6679,7 +6684,7 @@
       </c>
       <c r="B256" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C256" s="3" t="n">
@@ -6689,10 +6694,10 @@
         <v>0.1</v>
       </c>
       <c r="E256" s="3" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F256" s="3">
-        <f>IF(B256="common", 4, IF(B256="uncommon", 3, IF(B256="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B256="common", 4, IF(B256="uncommon", 3, IF(B256="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6704,18 +6709,18 @@
       </c>
       <c r="B257" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C257" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D257" s="3" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E257" s="3" t="inlineStr"/>
+        <v>0.49</v>
+      </c>
+      <c r="E257" s="3" t="n"/>
       <c r="F257" s="3">
-        <f>IF(B257="common", 4, IF(B257="uncommon", 3, IF(B257="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B257="common", 4, IF(B257="uncommon", 3, IF(B257="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6727,20 +6732,20 @@
       </c>
       <c r="B258" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C258" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D258" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E258" s="3" t="n">
         <v>0.14</v>
       </c>
       <c r="F258" s="3">
-        <f>IF(B258="common", 4, IF(B258="uncommon", 3, IF(B258="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B258="common", 4, IF(B258="uncommon", 3, IF(B258="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6752,18 +6757,18 @@
       </c>
       <c r="B259" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C259" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D259" s="3" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E259" s="3" t="inlineStr"/>
+        <v>0.57</v>
+      </c>
+      <c r="E259" s="3" t="n"/>
       <c r="F259" s="3">
-        <f>IF(B259="common", 4, IF(B259="uncommon", 3, IF(B259="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B259="common", 4, IF(B259="uncommon", 3, IF(B259="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6775,20 +6780,20 @@
       </c>
       <c r="B260" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C260" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D260" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E260" s="3" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F260" s="3">
-        <f>IF(B260="common", 4, IF(B260="uncommon", 3, IF(B260="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B260="common", 4, IF(B260="uncommon", 3, IF(B260="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6800,18 +6805,18 @@
       </c>
       <c r="B261" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C261" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D261" s="3" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="E261" s="3" t="inlineStr"/>
+        <v>0.72</v>
+      </c>
+      <c r="E261" s="3" t="n"/>
       <c r="F261" s="3">
-        <f>IF(B261="common", 4, IF(B261="uncommon", 3, IF(B261="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B261="common", 4, IF(B261="uncommon", 3, IF(B261="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6823,7 +6828,7 @@
       </c>
       <c r="B262" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C262" s="3" t="n">
@@ -6836,7 +6841,7 @@
         <v>0.16</v>
       </c>
       <c r="F262" s="3">
-        <f>IF(B262="common", 4, IF(B262="uncommon", 3, IF(B262="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B262="common", 4, IF(B262="uncommon", 3, IF(B262="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6848,18 +6853,18 @@
       </c>
       <c r="B263" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C263" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D263" s="3" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="E263" s="3" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="E263" s="3" t="n"/>
       <c r="F263" s="3">
-        <f>IF(B263="common", 4, IF(B263="uncommon", 3, IF(B263="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B263="common", 4, IF(B263="uncommon", 3, IF(B263="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6871,7 +6876,7 @@
       </c>
       <c r="B264" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C264" s="3" t="n">
@@ -6881,10 +6886,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E264" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F264" s="3">
-        <f>IF(B264="common", 4, IF(B264="uncommon", 3, IF(B264="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B264="common", 4, IF(B264="uncommon", 3, IF(B264="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6896,18 +6901,18 @@
       </c>
       <c r="B265" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C265" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D265" s="3" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E265" s="3" t="inlineStr"/>
+        <v>0.47</v>
+      </c>
+      <c r="E265" s="3" t="n"/>
       <c r="F265" s="3">
-        <f>IF(B265="common", 4, IF(B265="uncommon", 3, IF(B265="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B265="common", 4, IF(B265="uncommon", 3, IF(B265="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6919,7 +6924,7 @@
       </c>
       <c r="B266" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C266" s="3" t="n">
@@ -6929,10 +6934,10 @@
         <v>0.03</v>
       </c>
       <c r="E266" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F266" s="3">
-        <f>IF(B266="common", 4, IF(B266="uncommon", 3, IF(B266="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B266="common", 4, IF(B266="uncommon", 3, IF(B266="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6944,18 +6949,18 @@
       </c>
       <c r="B267" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C267" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D267" s="3" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="E267" s="3" t="inlineStr"/>
+        <v>6.86</v>
+      </c>
+      <c r="E267" s="3" t="n"/>
       <c r="F267" s="3">
-        <f>IF(B267="common", 4, IF(B267="uncommon", 3, IF(B267="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B267="common", 4, IF(B267="uncommon", 3, IF(B267="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6967,7 +6972,7 @@
       </c>
       <c r="B268" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C268" s="3" t="n">
@@ -6976,9 +6981,9 @@
       <c r="D268" s="3" t="n">
         <v>0.45</v>
       </c>
-      <c r="E268" s="3" t="inlineStr"/>
+      <c r="E268" s="3" t="n"/>
       <c r="F268" s="3">
-        <f>IF(B268="common", 4, IF(B268="uncommon", 3, IF(B268="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B268="common", 4, IF(B268="uncommon", 3, IF(B268="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -6990,7 +6995,7 @@
       </c>
       <c r="B269" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C269" s="3" t="n">
@@ -7003,7 +7008,7 @@
         <v>0.11</v>
       </c>
       <c r="F269" s="3">
-        <f>IF(B269="common", 4, IF(B269="uncommon", 3, IF(B269="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B269="common", 4, IF(B269="uncommon", 3, IF(B269="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7015,18 +7020,18 @@
       </c>
       <c r="B270" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C270" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D270" s="3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E270" s="3" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="E270" s="3" t="n"/>
       <c r="F270" s="3">
-        <f>IF(B270="common", 4, IF(B270="uncommon", 3, IF(B270="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B270="common", 4, IF(B270="uncommon", 3, IF(B270="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7038,18 +7043,18 @@
       </c>
       <c r="B271" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C271" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D271" s="3" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E271" s="3" t="inlineStr"/>
+        <v>0.4</v>
+      </c>
+      <c r="E271" s="3" t="n"/>
       <c r="F271" s="3">
-        <f>IF(B271="common", 4, IF(B271="uncommon", 3, IF(B271="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B271="common", 4, IF(B271="uncommon", 3, IF(B271="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7061,18 +7066,18 @@
       </c>
       <c r="B272" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C272" s="3" t="n">
         <v>1440</v>
       </c>
       <c r="D272" s="3" t="n">
-        <v>112.32</v>
-      </c>
-      <c r="E272" s="3" t="inlineStr"/>
+        <v>111.57</v>
+      </c>
+      <c r="E272" s="3" t="n"/>
       <c r="F272" s="3">
-        <f>IF(B272="common", 4, IF(B272="uncommon", 3, IF(B272="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B272="common", 4, IF(B272="uncommon", 3, IF(B272="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7084,18 +7089,18 @@
       </c>
       <c r="B273" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C273" s="3" t="n">
         <v>161</v>
       </c>
       <c r="D273" s="3" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E273" s="3" t="inlineStr"/>
+        <v>0.98</v>
+      </c>
+      <c r="E273" s="3" t="n"/>
       <c r="F273" s="3">
-        <f>IF(B273="common", 4, IF(B273="uncommon", 3, IF(B273="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B273="common", 4, IF(B273="uncommon", 3, IF(B273="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7107,20 +7112,20 @@
       </c>
       <c r="B274" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C274" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D274" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E274" s="3" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="F274" s="3">
-        <f>IF(B274="common", 4, IF(B274="uncommon", 3, IF(B274="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B274="common", 4, IF(B274="uncommon", 3, IF(B274="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7132,18 +7137,18 @@
       </c>
       <c r="B275" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C275" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D275" s="3" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="E275" s="3" t="inlineStr"/>
+        <v>2.93</v>
+      </c>
+      <c r="E275" s="3" t="n"/>
       <c r="F275" s="3">
-        <f>IF(B275="common", 4, IF(B275="uncommon", 3, IF(B275="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B275="common", 4, IF(B275="uncommon", 3, IF(B275="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7155,7 +7160,7 @@
       </c>
       <c r="B276" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C276" s="3" t="n">
@@ -7164,9 +7169,9 @@
       <c r="D276" s="3" t="n">
         <v>0.65</v>
       </c>
-      <c r="E276" s="3" t="inlineStr"/>
+      <c r="E276" s="3" t="n"/>
       <c r="F276" s="3">
-        <f>IF(B276="common", 4, IF(B276="uncommon", 3, IF(B276="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B276="common", 4, IF(B276="uncommon", 3, IF(B276="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7178,20 +7183,20 @@
       </c>
       <c r="B277" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C277" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D277" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E277" s="3" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F277" s="3">
-        <f>IF(B277="common", 4, IF(B277="uncommon", 3, IF(B277="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B277="common", 4, IF(B277="uncommon", 3, IF(B277="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7203,18 +7208,18 @@
       </c>
       <c r="B278" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C278" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D278" s="3" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E278" s="3" t="inlineStr"/>
+        <v>0.46</v>
+      </c>
+      <c r="E278" s="3" t="n"/>
       <c r="F278" s="3">
-        <f>IF(B278="common", 4, IF(B278="uncommon", 3, IF(B278="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B278="common", 4, IF(B278="uncommon", 3, IF(B278="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7226,7 +7231,7 @@
       </c>
       <c r="B279" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C279" s="3" t="n">
@@ -7236,10 +7241,10 @@
         <v>0.05</v>
       </c>
       <c r="E279" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F279" s="3">
-        <f>IF(B279="common", 4, IF(B279="uncommon", 3, IF(B279="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B279="common", 4, IF(B279="uncommon", 3, IF(B279="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7251,18 +7256,18 @@
       </c>
       <c r="B280" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C280" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D280" s="3" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E280" s="3" t="inlineStr"/>
+        <v>14.67</v>
+      </c>
+      <c r="E280" s="3" t="n"/>
       <c r="F280" s="3">
-        <f>IF(B280="common", 4, IF(B280="uncommon", 3, IF(B280="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B280="common", 4, IF(B280="uncommon", 3, IF(B280="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7274,7 +7279,7 @@
       </c>
       <c r="B281" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C281" s="3" t="n">
@@ -7283,9 +7288,9 @@
       <c r="D281" s="3" t="n">
         <v>0.55</v>
       </c>
-      <c r="E281" s="3" t="inlineStr"/>
+      <c r="E281" s="3" t="n"/>
       <c r="F281" s="3">
-        <f>IF(B281="common", 4, IF(B281="uncommon", 3, IF(B281="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B281="common", 4, IF(B281="uncommon", 3, IF(B281="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7297,7 +7302,7 @@
       </c>
       <c r="B282" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C282" s="3" t="n">
@@ -7307,10 +7312,10 @@
         <v>0.09</v>
       </c>
       <c r="E282" s="3" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F282" s="3">
-        <f>IF(B282="common", 4, IF(B282="uncommon", 3, IF(B282="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B282="common", 4, IF(B282="uncommon", 3, IF(B282="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7322,18 +7327,18 @@
       </c>
       <c r="B283" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C283" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D283" s="3" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="E283" s="3" t="inlineStr"/>
+        <v>15.59</v>
+      </c>
+      <c r="E283" s="3" t="n"/>
       <c r="F283" s="3">
-        <f>IF(B283="common", 4, IF(B283="uncommon", 3, IF(B283="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B283="common", 4, IF(B283="uncommon", 3, IF(B283="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7345,18 +7350,18 @@
       </c>
       <c r="B284" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C284" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D284" s="3" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E284" s="3" t="inlineStr"/>
+        <v>0.67</v>
+      </c>
+      <c r="E284" s="3" t="n"/>
       <c r="F284" s="3">
-        <f>IF(B284="common", 4, IF(B284="uncommon", 3, IF(B284="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B284="common", 4, IF(B284="uncommon", 3, IF(B284="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7368,7 +7373,7 @@
       </c>
       <c r="B285" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C285" s="3" t="n">
@@ -7377,9 +7382,9 @@
       <c r="D285" s="3" t="n">
         <v>217.58</v>
       </c>
-      <c r="E285" s="3" t="inlineStr"/>
+      <c r="E285" s="3" t="n"/>
       <c r="F285" s="3">
-        <f>IF(B285="common", 4, IF(B285="uncommon", 3, IF(B285="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B285="common", 4, IF(B285="uncommon", 3, IF(B285="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7391,7 +7396,7 @@
       </c>
       <c r="B286" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C286" s="3" t="n">
@@ -7404,7 +7409,7 @@
         <v>0.11</v>
       </c>
       <c r="F286" s="3">
-        <f>IF(B286="common", 4, IF(B286="uncommon", 3, IF(B286="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B286="common", 4, IF(B286="uncommon", 3, IF(B286="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7416,18 +7421,18 @@
       </c>
       <c r="B287" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C287" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D287" s="3" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E287" s="3" t="inlineStr"/>
+        <v>0.26</v>
+      </c>
+      <c r="E287" s="3" t="n"/>
       <c r="F287" s="3">
-        <f>IF(B287="common", 4, IF(B287="uncommon", 3, IF(B287="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B287="common", 4, IF(B287="uncommon", 3, IF(B287="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7439,18 +7444,18 @@
       </c>
       <c r="B288" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C288" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D288" s="3" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E288" s="3" t="inlineStr"/>
+        <v>0.44</v>
+      </c>
+      <c r="E288" s="3" t="n"/>
       <c r="F288" s="3">
-        <f>IF(B288="common", 4, IF(B288="uncommon", 3, IF(B288="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B288="common", 4, IF(B288="uncommon", 3, IF(B288="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7462,7 +7467,7 @@
       </c>
       <c r="B289" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C289" s="3" t="n">
@@ -7471,9 +7476,9 @@
       <c r="D289" s="3" t="n">
         <v>56.17</v>
       </c>
-      <c r="E289" s="3" t="inlineStr"/>
+      <c r="E289" s="3" t="n"/>
       <c r="F289" s="3">
-        <f>IF(B289="common", 4, IF(B289="uncommon", 3, IF(B289="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B289="common", 4, IF(B289="uncommon", 3, IF(B289="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7485,18 +7490,18 @@
       </c>
       <c r="B290" s="3" t="inlineStr">
         <is>
-          <t>ACE SPEC Rare</t>
+          <t>ace spec rare</t>
         </is>
       </c>
       <c r="C290" s="3" t="n">
         <v>128</v>
       </c>
       <c r="D290" s="3" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="E290" s="3" t="inlineStr"/>
+        <v>0.31</v>
+      </c>
+      <c r="E290" s="3" t="n"/>
       <c r="F290" s="3">
-        <f>IF(B290="common", 4, IF(B290="uncommon", 3, IF(B290="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B290="common", 4, IF(B290="uncommon", 3, IF(B290="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7508,7 +7513,7 @@
       </c>
       <c r="B291" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C291" s="3" t="n">
@@ -7521,7 +7526,7 @@
         <v>0.16</v>
       </c>
       <c r="F291" s="3">
-        <f>IF(B291="common", 4, IF(B291="uncommon", 3, IF(B291="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B291="common", 4, IF(B291="uncommon", 3, IF(B291="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7533,18 +7538,18 @@
       </c>
       <c r="B292" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C292" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D292" s="3" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="E292" s="3" t="inlineStr"/>
+        <v>9.18</v>
+      </c>
+      <c r="E292" s="3" t="n"/>
       <c r="F292" s="3">
-        <f>IF(B292="common", 4, IF(B292="uncommon", 3, IF(B292="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B292="common", 4, IF(B292="uncommon", 3, IF(B292="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7556,18 +7561,18 @@
       </c>
       <c r="B293" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C293" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D293" s="3" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E293" s="3" t="inlineStr"/>
+        <v>0.59</v>
+      </c>
+      <c r="E293" s="3" t="n"/>
       <c r="F293" s="3">
-        <f>IF(B293="common", 4, IF(B293="uncommon", 3, IF(B293="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B293="common", 4, IF(B293="uncommon", 3, IF(B293="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7579,20 +7584,20 @@
       </c>
       <c r="B294" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C294" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D294" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E294" s="3" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="F294" s="3">
-        <f>IF(B294="common", 4, IF(B294="uncommon", 3, IF(B294="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B294="common", 4, IF(B294="uncommon", 3, IF(B294="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7604,18 +7609,18 @@
       </c>
       <c r="B295" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C295" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D295" s="3" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="E295" s="3" t="inlineStr"/>
+        <v>3.6</v>
+      </c>
+      <c r="E295" s="3" t="n"/>
       <c r="F295" s="3">
-        <f>IF(B295="common", 4, IF(B295="uncommon", 3, IF(B295="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B295="common", 4, IF(B295="uncommon", 3, IF(B295="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7627,18 +7632,18 @@
       </c>
       <c r="B296" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C296" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D296" s="3" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E296" s="3" t="inlineStr"/>
+        <v>0.49</v>
+      </c>
+      <c r="E296" s="3" t="n"/>
       <c r="F296" s="3">
-        <f>IF(B296="common", 4, IF(B296="uncommon", 3, IF(B296="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B296="common", 4, IF(B296="uncommon", 3, IF(B296="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7650,7 +7655,7 @@
       </c>
       <c r="B297" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C297" s="3" t="n">
@@ -7663,7 +7668,7 @@
         <v>0.13</v>
       </c>
       <c r="F297" s="3">
-        <f>IF(B297="common", 4, IF(B297="uncommon", 3, IF(B297="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B297="common", 4, IF(B297="uncommon", 3, IF(B297="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7675,18 +7680,18 @@
       </c>
       <c r="B298" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C298" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D298" s="3" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="E298" s="3" t="inlineStr"/>
+        <v>8.890000000000001</v>
+      </c>
+      <c r="E298" s="3" t="n"/>
       <c r="F298" s="3">
-        <f>IF(B298="common", 4, IF(B298="uncommon", 3, IF(B298="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B298="common", 4, IF(B298="uncommon", 3, IF(B298="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7698,18 +7703,18 @@
       </c>
       <c r="B299" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C299" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D299" s="3" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E299" s="3" t="inlineStr"/>
+        <v>0.48</v>
+      </c>
+      <c r="E299" s="3" t="n"/>
       <c r="F299" s="3">
-        <f>IF(B299="common", 4, IF(B299="uncommon", 3, IF(B299="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B299="common", 4, IF(B299="uncommon", 3, IF(B299="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7721,7 +7726,7 @@
       </c>
       <c r="B300" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C300" s="3" t="n">
@@ -7734,7 +7739,7 @@
         <v>0.14</v>
       </c>
       <c r="F300" s="3">
-        <f>IF(B300="common", 4, IF(B300="uncommon", 3, IF(B300="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B300="common", 4, IF(B300="uncommon", 3, IF(B300="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7746,18 +7751,18 @@
       </c>
       <c r="B301" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C301" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D301" s="3" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="E301" s="3" t="inlineStr"/>
+        <v>2.9</v>
+      </c>
+      <c r="E301" s="3" t="n"/>
       <c r="F301" s="3">
-        <f>IF(B301="common", 4, IF(B301="uncommon", 3, IF(B301="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B301="common", 4, IF(B301="uncommon", 3, IF(B301="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7769,18 +7774,18 @@
       </c>
       <c r="B302" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C302" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D302" s="3" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E302" s="3" t="inlineStr"/>
+        <v>0.4</v>
+      </c>
+      <c r="E302" s="3" t="n"/>
       <c r="F302" s="3">
-        <f>IF(B302="common", 4, IF(B302="uncommon", 3, IF(B302="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B302="common", 4, IF(B302="uncommon", 3, IF(B302="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7792,7 +7797,7 @@
       </c>
       <c r="B303" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C303" s="3" t="n">
@@ -7805,7 +7810,7 @@
         <v>0.11</v>
       </c>
       <c r="F303" s="3">
-        <f>IF(B303="common", 4, IF(B303="uncommon", 3, IF(B303="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B303="common", 4, IF(B303="uncommon", 3, IF(B303="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7817,18 +7822,18 @@
       </c>
       <c r="B304" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C304" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D304" s="3" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="E304" s="3" t="inlineStr"/>
+        <v>5.46</v>
+      </c>
+      <c r="E304" s="3" t="n"/>
       <c r="F304" s="3">
-        <f>IF(B304="common", 4, IF(B304="uncommon", 3, IF(B304="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B304="common", 4, IF(B304="uncommon", 3, IF(B304="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7840,18 +7845,18 @@
       </c>
       <c r="B305" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C305" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D305" s="3" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E305" s="3" t="inlineStr"/>
+        <v>0.73</v>
+      </c>
+      <c r="E305" s="3" t="n"/>
       <c r="F305" s="3">
-        <f>IF(B305="common", 4, IF(B305="uncommon", 3, IF(B305="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B305="common", 4, IF(B305="uncommon", 3, IF(B305="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7863,7 +7868,7 @@
       </c>
       <c r="B306" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C306" s="3" t="n">
@@ -7873,10 +7878,10 @@
         <v>0.04</v>
       </c>
       <c r="E306" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F306" s="3">
-        <f>IF(B306="common", 4, IF(B306="uncommon", 3, IF(B306="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B306="common", 4, IF(B306="uncommon", 3, IF(B306="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7888,18 +7893,18 @@
       </c>
       <c r="B307" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C307" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D307" s="3" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E307" s="3" t="inlineStr"/>
+        <v>4.15</v>
+      </c>
+      <c r="E307" s="3" t="n"/>
       <c r="F307" s="3">
-        <f>IF(B307="common", 4, IF(B307="uncommon", 3, IF(B307="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B307="common", 4, IF(B307="uncommon", 3, IF(B307="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7911,7 +7916,7 @@
       </c>
       <c r="B308" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C308" s="3" t="n">
@@ -7920,9 +7925,9 @@
       <c r="D308" s="3" t="n">
         <v>0.38</v>
       </c>
-      <c r="E308" s="3" t="inlineStr"/>
+      <c r="E308" s="3" t="n"/>
       <c r="F308" s="3">
-        <f>IF(B308="common", 4, IF(B308="uncommon", 3, IF(B308="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B308="common", 4, IF(B308="uncommon", 3, IF(B308="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7934,18 +7939,18 @@
       </c>
       <c r="B309" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C309" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D309" s="3" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="E309" s="3" t="inlineStr"/>
+        <v>0.71</v>
+      </c>
+      <c r="E309" s="3" t="n"/>
       <c r="F309" s="3">
-        <f>IF(B309="common", 4, IF(B309="uncommon", 3, IF(B309="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B309="common", 4, IF(B309="uncommon", 3, IF(B309="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7957,18 +7962,18 @@
       </c>
       <c r="B310" s="3" t="inlineStr">
         <is>
-          <t>ACE SPEC Rare</t>
+          <t>ace spec rare</t>
         </is>
       </c>
       <c r="C310" s="3" t="n">
         <v>128</v>
       </c>
       <c r="D310" s="3" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E310" s="3" t="inlineStr"/>
+        <v>0.49</v>
+      </c>
+      <c r="E310" s="3" t="n"/>
       <c r="F310" s="3">
-        <f>IF(B310="common", 4, IF(B310="uncommon", 3, IF(B310="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B310="common", 4, IF(B310="uncommon", 3, IF(B310="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -7980,7 +7985,7 @@
       </c>
       <c r="B311" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C311" s="3" t="n">
@@ -7993,7 +7998,7 @@
         <v>0.08</v>
       </c>
       <c r="F311" s="3">
-        <f>IF(B311="common", 4, IF(B311="uncommon", 3, IF(B311="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B311="common", 4, IF(B311="uncommon", 3, IF(B311="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8005,18 +8010,18 @@
       </c>
       <c r="B312" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C312" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D312" s="3" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="E312" s="3" t="inlineStr"/>
+        <v>2.14</v>
+      </c>
+      <c r="E312" s="3" t="n"/>
       <c r="F312" s="3">
-        <f>IF(B312="common", 4, IF(B312="uncommon", 3, IF(B312="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B312="common", 4, IF(B312="uncommon", 3, IF(B312="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8028,18 +8033,18 @@
       </c>
       <c r="B313" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C313" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D313" s="3" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E313" s="3" t="inlineStr"/>
+        <v>0.34</v>
+      </c>
+      <c r="E313" s="3" t="n"/>
       <c r="F313" s="3">
-        <f>IF(B313="common", 4, IF(B313="uncommon", 3, IF(B313="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B313="common", 4, IF(B313="uncommon", 3, IF(B313="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8051,7 +8056,7 @@
       </c>
       <c r="B314" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C314" s="3" t="n">
@@ -8064,7 +8069,7 @@
         <v>0.16</v>
       </c>
       <c r="F314" s="3">
-        <f>IF(B314="common", 4, IF(B314="uncommon", 3, IF(B314="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B314="common", 4, IF(B314="uncommon", 3, IF(B314="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8076,18 +8081,18 @@
       </c>
       <c r="B315" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C315" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D315" s="3" t="n">
-        <v>19.53</v>
-      </c>
-      <c r="E315" s="3" t="inlineStr"/>
+        <v>19.48</v>
+      </c>
+      <c r="E315" s="3" t="n"/>
       <c r="F315" s="3">
-        <f>IF(B315="common", 4, IF(B315="uncommon", 3, IF(B315="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B315="common", 4, IF(B315="uncommon", 3, IF(B315="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8099,18 +8104,18 @@
       </c>
       <c r="B316" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C316" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D316" s="3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E316" s="3" t="inlineStr"/>
+        <v>0.89</v>
+      </c>
+      <c r="E316" s="3" t="n"/>
       <c r="F316" s="3">
-        <f>IF(B316="common", 4, IF(B316="uncommon", 3, IF(B316="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B316="common", 4, IF(B316="uncommon", 3, IF(B316="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8122,20 +8127,20 @@
       </c>
       <c r="B317" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C317" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D317" s="3" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="E317" s="3" t="n">
         <v>0.27</v>
       </c>
       <c r="F317" s="3">
-        <f>IF(B317="common", 4, IF(B317="uncommon", 3, IF(B317="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B317="common", 4, IF(B317="uncommon", 3, IF(B317="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8147,7 +8152,7 @@
       </c>
       <c r="B318" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C318" s="3" t="n">
@@ -8156,9 +8161,9 @@
       <c r="D318" s="3" t="n">
         <v>48.62</v>
       </c>
-      <c r="E318" s="3" t="inlineStr"/>
+      <c r="E318" s="3" t="n"/>
       <c r="F318" s="3">
-        <f>IF(B318="common", 4, IF(B318="uncommon", 3, IF(B318="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B318="common", 4, IF(B318="uncommon", 3, IF(B318="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8170,18 +8175,18 @@
       </c>
       <c r="B319" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C319" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D319" s="3" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="E319" s="3" t="inlineStr"/>
+        <v>1.72</v>
+      </c>
+      <c r="E319" s="3" t="n"/>
       <c r="F319" s="3">
-        <f>IF(B319="common", 4, IF(B319="uncommon", 3, IF(B319="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B319="common", 4, IF(B319="uncommon", 3, IF(B319="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8193,18 +8198,18 @@
       </c>
       <c r="B320" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C320" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D320" s="3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="E320" s="3" t="inlineStr"/>
+        <v>2.23</v>
+      </c>
+      <c r="E320" s="3" t="n"/>
       <c r="F320" s="3">
-        <f>IF(B320="common", 4, IF(B320="uncommon", 3, IF(B320="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B320="common", 4, IF(B320="uncommon", 3, IF(B320="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8216,7 +8221,7 @@
       </c>
       <c r="B321" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C321" s="3" t="n">
@@ -8225,9 +8230,9 @@
       <c r="D321" s="3" t="n">
         <v>491.34</v>
       </c>
-      <c r="E321" s="3" t="inlineStr"/>
+      <c r="E321" s="3" t="n"/>
       <c r="F321" s="3">
-        <f>IF(B321="common", 4, IF(B321="uncommon", 3, IF(B321="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B321="common", 4, IF(B321="uncommon", 3, IF(B321="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8239,18 +8244,18 @@
       </c>
       <c r="B322" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C322" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D322" s="3" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="E322" s="3" t="inlineStr"/>
+        <v>1.42</v>
+      </c>
+      <c r="E322" s="3" t="n"/>
       <c r="F322" s="3">
-        <f>IF(B322="common", 4, IF(B322="uncommon", 3, IF(B322="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B322="common", 4, IF(B322="uncommon", 3, IF(B322="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8262,7 +8267,7 @@
       </c>
       <c r="B323" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C323" s="3" t="n">
@@ -8271,9 +8276,9 @@
       <c r="D323" s="3" t="n">
         <v>34.13</v>
       </c>
-      <c r="E323" s="3" t="inlineStr"/>
+      <c r="E323" s="3" t="n"/>
       <c r="F323" s="3">
-        <f>IF(B323="common", 4, IF(B323="uncommon", 3, IF(B323="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B323="common", 4, IF(B323="uncommon", 3, IF(B323="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8285,18 +8290,18 @@
       </c>
       <c r="B324" s="3" t="inlineStr">
         <is>
-          <t>Hyper Rare</t>
+          <t>hyper rare</t>
         </is>
       </c>
       <c r="C324" s="3" t="n">
         <v>900</v>
       </c>
       <c r="D324" s="3" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="E324" s="3" t="inlineStr"/>
+        <v>11.88</v>
+      </c>
+      <c r="E324" s="3" t="n"/>
       <c r="F324" s="3">
-        <f>IF(B324="common", 4, IF(B324="uncommon", 3, IF(B324="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B324="common", 4, IF(B324="uncommon", 3, IF(B324="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8308,7 +8313,7 @@
       </c>
       <c r="B325" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C325" s="3" t="n">
@@ -8321,7 +8326,7 @@
         <v>0.15</v>
       </c>
       <c r="F325" s="3">
-        <f>IF(B325="common", 4, IF(B325="uncommon", 3, IF(B325="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B325="common", 4, IF(B325="uncommon", 3, IF(B325="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8333,7 +8338,7 @@
       </c>
       <c r="B326" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C326" s="3" t="n">
@@ -8342,9 +8347,9 @@
       <c r="D326" s="3" t="n">
         <v>0.38</v>
       </c>
-      <c r="E326" s="3" t="inlineStr"/>
+      <c r="E326" s="3" t="n"/>
       <c r="F326" s="3">
-        <f>IF(B326="common", 4, IF(B326="uncommon", 3, IF(B326="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B326="common", 4, IF(B326="uncommon", 3, IF(B326="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8356,18 +8361,18 @@
       </c>
       <c r="B327" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C327" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D327" s="3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="E327" s="3" t="inlineStr"/>
+        <v>1.1</v>
+      </c>
+      <c r="E327" s="3" t="n"/>
       <c r="F327" s="3">
-        <f>IF(B327="common", 4, IF(B327="uncommon", 3, IF(B327="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B327="common", 4, IF(B327="uncommon", 3, IF(B327="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8379,18 +8384,18 @@
       </c>
       <c r="B328" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C328" s="3" t="n">
         <v>1440</v>
       </c>
       <c r="D328" s="3" t="n">
-        <v>50.94</v>
-      </c>
-      <c r="E328" s="3" t="inlineStr"/>
+        <v>50.7</v>
+      </c>
+      <c r="E328" s="3" t="n"/>
       <c r="F328" s="3">
-        <f>IF(B328="common", 4, IF(B328="uncommon", 3, IF(B328="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B328="common", 4, IF(B328="uncommon", 3, IF(B328="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8402,18 +8407,18 @@
       </c>
       <c r="B329" s="3" t="inlineStr">
         <is>
-          <t>Hyper Rare</t>
+          <t>hyper rare</t>
         </is>
       </c>
       <c r="C329" s="3" t="n">
         <v>900</v>
       </c>
       <c r="D329" s="3" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="E329" s="3" t="inlineStr"/>
+        <v>11.56</v>
+      </c>
+      <c r="E329" s="3" t="n"/>
       <c r="F329" s="3">
-        <f>IF(B329="common", 4, IF(B329="uncommon", 3, IF(B329="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B329="common", 4, IF(B329="uncommon", 3, IF(B329="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8425,18 +8430,18 @@
       </c>
       <c r="B330" s="3" t="inlineStr">
         <is>
-          <t>ACE SPEC Rare</t>
+          <t>ace spec rare</t>
         </is>
       </c>
       <c r="C330" s="3" t="n">
         <v>128</v>
       </c>
       <c r="D330" s="3" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E330" s="3" t="inlineStr"/>
+        <v>0.38</v>
+      </c>
+      <c r="E330" s="3" t="n"/>
       <c r="F330" s="3">
-        <f>IF(B330="common", 4, IF(B330="uncommon", 3, IF(B330="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B330="common", 4, IF(B330="uncommon", 3, IF(B330="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8448,18 +8453,18 @@
       </c>
       <c r="B331" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C331" s="3" t="n">
         <v>161</v>
       </c>
       <c r="D331" s="3" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="E331" s="3" t="inlineStr"/>
+        <v>0.51</v>
+      </c>
+      <c r="E331" s="3" t="n"/>
       <c r="F331" s="3">
-        <f>IF(B331="common", 4, IF(B331="uncommon", 3, IF(B331="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B331="common", 4, IF(B331="uncommon", 3, IF(B331="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8471,18 +8476,18 @@
       </c>
       <c r="B332" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C332" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D332" s="3" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="E332" s="3" t="inlineStr"/>
+        <v>0.58</v>
+      </c>
+      <c r="E332" s="3" t="n"/>
       <c r="F332" s="3">
-        <f>IF(B332="common", 4, IF(B332="uncommon", 3, IF(B332="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B332="common", 4, IF(B332="uncommon", 3, IF(B332="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8494,7 +8499,7 @@
       </c>
       <c r="B333" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C333" s="3" t="n">
@@ -8504,10 +8509,10 @@
         <v>0.27</v>
       </c>
       <c r="E333" s="3" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="F333" s="3">
-        <f>IF(B333="common", 4, IF(B333="uncommon", 3, IF(B333="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B333="common", 4, IF(B333="uncommon", 3, IF(B333="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8519,7 +8524,7 @@
       </c>
       <c r="B334" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C334" s="3" t="n">
@@ -8528,9 +8533,9 @@
       <c r="D334" s="3" t="n">
         <v>94.48999999999999</v>
       </c>
-      <c r="E334" s="3" t="inlineStr"/>
+      <c r="E334" s="3" t="n"/>
       <c r="F334" s="3">
-        <f>IF(B334="common", 4, IF(B334="uncommon", 3, IF(B334="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B334="common", 4, IF(B334="uncommon", 3, IF(B334="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8542,18 +8547,18 @@
       </c>
       <c r="B335" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C335" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D335" s="3" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="E335" s="3" t="inlineStr"/>
+        <v>4.44</v>
+      </c>
+      <c r="E335" s="3" t="n"/>
       <c r="F335" s="3">
-        <f>IF(B335="common", 4, IF(B335="uncommon", 3, IF(B335="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B335="common", 4, IF(B335="uncommon", 3, IF(B335="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8565,18 +8570,18 @@
       </c>
       <c r="B336" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C336" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D336" s="3" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="E336" s="3" t="inlineStr"/>
+        <v>5.75</v>
+      </c>
+      <c r="E336" s="3" t="n"/>
       <c r="F336" s="3">
-        <f>IF(B336="common", 4, IF(B336="uncommon", 3, IF(B336="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B336="common", 4, IF(B336="uncommon", 3, IF(B336="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8588,7 +8593,7 @@
       </c>
       <c r="B337" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C337" s="3" t="n">
@@ -8597,9 +8602,9 @@
       <c r="D337" s="3" t="n">
         <v>1253.83</v>
       </c>
-      <c r="E337" s="3" t="inlineStr"/>
+      <c r="E337" s="3" t="n"/>
       <c r="F337" s="3">
-        <f>IF(B337="common", 4, IF(B337="uncommon", 3, IF(B337="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B337="common", 4, IF(B337="uncommon", 3, IF(B337="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8611,20 +8616,20 @@
       </c>
       <c r="B338" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C338" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D338" s="3" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E338" s="3" t="n">
         <v>0.26</v>
       </c>
       <c r="F338" s="3">
-        <f>IF(B338="common", 4, IF(B338="uncommon", 3, IF(B338="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B338="common", 4, IF(B338="uncommon", 3, IF(B338="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8636,18 +8641,18 @@
       </c>
       <c r="B339" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C339" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D339" s="3" t="n">
-        <v>40.14</v>
-      </c>
-      <c r="E339" s="3" t="inlineStr"/>
+        <v>39.51</v>
+      </c>
+      <c r="E339" s="3" t="n"/>
       <c r="F339" s="3">
-        <f>IF(B339="common", 4, IF(B339="uncommon", 3, IF(B339="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B339="common", 4, IF(B339="uncommon", 3, IF(B339="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8659,18 +8664,18 @@
       </c>
       <c r="B340" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C340" s="3" t="n">
         <v>302</v>
       </c>
       <c r="D340" s="3" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="E340" s="3" t="inlineStr"/>
+        <v>1.59</v>
+      </c>
+      <c r="E340" s="3" t="n"/>
       <c r="F340" s="3">
-        <f>IF(B340="common", 4, IF(B340="uncommon", 3, IF(B340="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B340="common", 4, IF(B340="uncommon", 3, IF(B340="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8682,18 +8687,18 @@
       </c>
       <c r="B341" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C341" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D341" s="3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E341" s="3" t="inlineStr"/>
+        <v>2.32</v>
+      </c>
+      <c r="E341" s="3" t="n"/>
       <c r="F341" s="3">
-        <f>IF(B341="common", 4, IF(B341="uncommon", 3, IF(B341="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B341="common", 4, IF(B341="uncommon", 3, IF(B341="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8705,7 +8710,7 @@
       </c>
       <c r="B342" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C342" s="3" t="n">
@@ -8714,9 +8719,9 @@
       <c r="D342" s="3" t="n">
         <v>283.48</v>
       </c>
-      <c r="E342" s="3" t="inlineStr"/>
+      <c r="E342" s="3" t="n"/>
       <c r="F342" s="3">
-        <f>IF(B342="common", 4, IF(B342="uncommon", 3, IF(B342="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B342="common", 4, IF(B342="uncommon", 3, IF(B342="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8728,18 +8733,18 @@
       </c>
       <c r="B343" s="3" t="inlineStr">
         <is>
-          <t>Hyper Rare</t>
+          <t>hyper rare</t>
         </is>
       </c>
       <c r="C343" s="3" t="n">
         <v>900</v>
       </c>
       <c r="D343" s="3" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="E343" s="3" t="inlineStr"/>
+        <v>8.529999999999999</v>
+      </c>
+      <c r="E343" s="3" t="n"/>
       <c r="F343" s="3">
-        <f>IF(B343="common", 4, IF(B343="uncommon", 3, IF(B343="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B343="common", 4, IF(B343="uncommon", 3, IF(B343="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8751,18 +8756,18 @@
       </c>
       <c r="B344" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C344" s="3" t="n">
         <v>106</v>
       </c>
       <c r="D344" s="3" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="E344" s="3" t="inlineStr"/>
+        <v>0.66</v>
+      </c>
+      <c r="E344" s="3" t="n"/>
       <c r="F344" s="3">
-        <f>IF(B344="common", 4, IF(B344="uncommon", 3, IF(B344="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B344="common", 4, IF(B344="uncommon", 3, IF(B344="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8774,18 +8779,18 @@
       </c>
       <c r="B345" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C345" s="3" t="n">
         <v>1440</v>
       </c>
       <c r="D345" s="3" t="n">
-        <v>27.48</v>
-      </c>
-      <c r="E345" s="3" t="inlineStr"/>
+        <v>27.43</v>
+      </c>
+      <c r="E345" s="3" t="n"/>
       <c r="F345" s="3">
-        <f>IF(B345="common", 4, IF(B345="uncommon", 3, IF(B345="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B345="common", 4, IF(B345="uncommon", 3, IF(B345="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8797,20 +8802,20 @@
       </c>
       <c r="B346" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C346" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D346" s="3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E346" s="3" t="n">
         <v>0.11</v>
       </c>
       <c r="F346" s="3">
-        <f>IF(B346="common", 4, IF(B346="uncommon", 3, IF(B346="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B346="common", 4, IF(B346="uncommon", 3, IF(B346="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8822,18 +8827,18 @@
       </c>
       <c r="B347" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>master ball pattern</t>
         </is>
       </c>
       <c r="C347" s="3" t="n">
         <v>1362</v>
       </c>
       <c r="D347" s="3" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E347" s="3" t="inlineStr"/>
+        <v>9.19</v>
+      </c>
+      <c r="E347" s="3" t="n"/>
       <c r="F347" s="3">
-        <f>IF(B347="common", 4, IF(B347="uncommon", 3, IF(B347="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B347="common", 4, IF(B347="uncommon", 3, IF(B347="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -8845,7 +8850,7 @@
       </c>
       <c r="B348" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>poke ball pattern</t>
         </is>
       </c>
       <c r="C348" s="3" t="n">
@@ -8854,9 +8859,9 @@
       <c r="D348" s="3" t="n">
         <v>0.45</v>
       </c>
-      <c r="E348" s="3" t="inlineStr"/>
+      <c r="E348" s="3" t="n"/>
       <c r="F348" s="3">
-        <f>IF(B348="common", 4, IF(B348="uncommon", 3, IF(B348="rare", 1.74127216869152, 1)))</f>
+        <f>IF(B348="common", 4, IF(B348="uncommon", 3, IF(B348="rare", 0.75, 1)))</f>
         <v/>
       </c>
     </row>
@@ -14356,7 +14361,7 @@
       <c r="E1263" s="3" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K210"/>
+  <autoFilter ref="A1:K348"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -14380,225 +14385,225 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>ev_common_total</t>
         </is>
       </c>
-      <c r="B2" s="11" t="n">
-        <v>0.06586956521739129</v>
+      <c r="B2" s="12" t="n">
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="inlineStr">
+      <c r="A3" s="11" t="inlineStr">
         <is>
           <t>ev_uncommon_total</t>
         </is>
       </c>
-      <c r="B3" s="11" t="n">
-        <v>0.08121212121212122</v>
+      <c r="B3" s="12" t="n">
+        <v>0.2481818181818182</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>ev_rare_total</t>
         </is>
       </c>
-      <c r="B4" s="11" t="n">
-        <v>0.18</v>
+      <c r="B4" s="12" t="n">
+        <v>0.1326509971509971</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="inlineStr">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>ev_reverse_total</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>0.9517976158302244</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>ev_ace_spec_total</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="n">
+        <v>0.027890625</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>ev_pokeball_total</t>
+        </is>
+      </c>
+      <c r="B7" s="12" t="n">
+        <v>0.2698344370860927</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>ev_master_ball_total</t>
+        </is>
+      </c>
+      <c r="B8" s="12" t="n">
+        <v>0.5741042584434655</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>ev_IR_total</t>
+        </is>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>ev_SIR_total</t>
+        </is>
+      </c>
+      <c r="B10" s="12" t="n">
+        <v>3.813493055555556</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="inlineStr">
         <is>
           <t>ev_double_rare_total</t>
         </is>
       </c>
-      <c r="B5" s="11" t="n">
-        <v>0.5122641509433962</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="inlineStr">
-        <is>
-          <t>ev_pokeball_total</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="n">
-        <v>0.2693708609271523</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="inlineStr">
-        <is>
-          <t>ev_master_ball_total</t>
-        </is>
-      </c>
-      <c r="B7" s="11" t="n">
-        <v>0.5742364170337738</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="inlineStr">
+      <c r="B11" s="12" t="n">
+        <v>0.5376415094339624</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="inlineStr">
         <is>
           <t>ev_hyper_rare_total</t>
         </is>
       </c>
-      <c r="B8" s="11" t="n">
-        <v>0.1038666666666666</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="10" t="inlineStr">
+      <c r="B12" s="12" t="n">
+        <v>0.1047444444444445</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="inlineStr">
         <is>
           <t>ev_ultra_rare_total</t>
         </is>
       </c>
-      <c r="B9" s="11" t="n">
-        <v>0.07316770186335403</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="inlineStr">
-        <is>
-          <t>ev_SIR_total</t>
-        </is>
-      </c>
-      <c r="B10" s="11" t="n">
-        <v>3.822527777777778</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="inlineStr">
-        <is>
-          <t>ev_IR_total</t>
-        </is>
-      </c>
-      <c r="B11" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="10" t="inlineStr">
-        <is>
-          <t>ev_reverse_total</t>
-        </is>
-      </c>
-      <c r="B12" s="11" t="n">
-        <v>0.6321385956127548</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="inlineStr">
+      <c r="B13" s="12" t="n">
+        <v>0.07354037267080744</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="inlineStr">
         <is>
           <t>reverse_multiplier</t>
         </is>
       </c>
-      <c r="B13" s="11" t="n">
-        <v>1.977777777777778</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="inlineStr">
+      <c r="B14" s="11" t="n">
+        <v>1.517521367521367</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="inlineStr">
         <is>
           <t>rare_multiplier</t>
         </is>
       </c>
-      <c r="B14" s="10" t="n">
-        <v>1.684061226349988</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="inlineStr">
-        <is>
-          <t>ev_total_for_hits</t>
-        </is>
-      </c>
       <c r="B15" s="11" t="n">
-        <v>3.999562146307799</v>
+        <v>0.7508547008547009</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="inlineStr">
+      <c r="A16" s="11" t="inlineStr">
         <is>
           <t>ev_hits_total</t>
         </is>
       </c>
-      <c r="B16" s="11" t="n">
-        <v>4.511826297251194</v>
+      <c r="B16" s="12" t="n">
+        <v>5.401248702634328</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="10" t="inlineStr">
+      <c r="A17" s="11" t="inlineStr">
         <is>
           <t>total_ev</t>
         </is>
       </c>
-      <c r="B17" s="11" t="n">
-        <v>7.156016706011798</v>
+      <c r="B17" s="12" t="n">
+        <v>6.994748699014758</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="inlineStr">
+      <c r="A18" s="11" t="inlineStr">
         <is>
           <t>net_value</t>
         </is>
       </c>
-      <c r="B18" s="11" t="n">
-        <v>-4.993983293988203</v>
+      <c r="B18" s="12" t="n">
+        <v>-5.155251300985242</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="inlineStr">
+      <c r="A19" s="11" t="inlineStr">
         <is>
           <t>roi</t>
         </is>
       </c>
-      <c r="B19" s="12" t="n">
-        <v>0.5889725683960327</v>
+      <c r="B19" s="13" t="n">
+        <v>0.5756994814003916</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="inlineStr">
+      <c r="A20" s="11" t="inlineStr">
         <is>
           <t>roi_percent</t>
         </is>
       </c>
-      <c r="B20" s="12" t="n">
-        <v>-41.10274316039673</v>
+      <c r="B20" s="14" t="n">
+        <v>-0.4243005185996084</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="inlineStr">
+      <c r="A21" s="11" t="inlineStr">
         <is>
           <t>no_hit_probability_percentage</t>
         </is>
       </c>
-      <c r="B21" s="12" t="n">
-        <v>71.21093613378645</v>
+      <c r="B21" s="14" t="n">
+        <v>0.4641866516151435</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="inlineStr">
+      <c r="A22" s="11" t="inlineStr">
         <is>
           <t>hit_probability_percentage</t>
         </is>
       </c>
-      <c r="B22" s="12" t="n">
-        <v>28.78906386621355</v>
+      <c r="B22" s="14" t="n">
+        <v>0.5358133483848565</v>
       </c>
     </row>
   </sheetData>
